--- a/Filtered_By_Region/CAR/CAR_QRF.xlsx
+++ b/Filtered_By_Region/CAR/CAR_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT201"/>
+  <dimension ref="A1:AU201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -729,29 +735,27 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-005</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y2" t="inlineStr">
@@ -759,7 +763,6 @@
           <t>Baje Construction</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -796,7 +799,6 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -807,9 +809,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -881,29 +880,27 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-005</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y3" t="inlineStr">
@@ -911,7 +908,6 @@
           <t>Baje Construction</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -948,7 +944,6 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -959,9 +954,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1033,29 +1025,27 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-005</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1063,7 +1053,6 @@
           <t>Baje Construction</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1100,7 +1089,6 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1111,9 +1099,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1185,29 +1170,27 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>43910</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-007</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1215,7 +1198,6 @@
           <t>HGW=3 Engineering &amp; Construction</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1252,7 +1234,6 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1263,9 +1244,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1337,29 +1315,27 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>43910</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-007</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1367,7 +1343,6 @@
           <t>HGW=3 Engineering &amp; Construction</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1404,7 +1379,6 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1415,9 +1389,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1489,29 +1460,27 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-006</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1519,7 +1488,6 @@
           <t>LONNIE Construction</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1556,7 +1524,6 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1567,9 +1534,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1641,29 +1605,27 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-005</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1671,7 +1633,6 @@
           <t>Baje Construction</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1708,7 +1669,6 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1719,9 +1679,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1793,29 +1750,27 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-008 / CAR-ABRA-2019-009</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1864,7 +1819,6 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1875,9 +1829,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1949,29 +1900,27 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-008</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="X10" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1979,7 +1928,6 @@
           <t>TRAMS Construction</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -2016,7 +1964,6 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2027,9 +1974,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2101,29 +2045,27 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-008</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="X11" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2172,7 +2114,6 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2183,9 +2124,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2257,29 +2195,27 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>43910</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-007</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="X12" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2328,7 +2264,6 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2339,9 +2274,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2413,29 +2345,27 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-009</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="X13" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2443,7 +2373,6 @@
           <t>HOPE EFG Builders</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2480,7 +2409,6 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2491,9 +2419,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2565,29 +2490,27 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-006</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2595,7 +2518,6 @@
           <t>LONNIE Construction</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2632,7 +2554,6 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2643,9 +2564,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2717,29 +2635,27 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-006</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2747,7 +2663,6 @@
           <t>LONNIE Construction</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2784,7 +2699,6 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2795,9 +2709,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2869,29 +2780,27 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-006</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2899,7 +2808,6 @@
           <t>LONNIE Construction</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2936,7 +2844,6 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2947,9 +2854,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3021,29 +2925,27 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-006</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3051,7 +2953,6 @@
           <t>LONNIE Construction</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -3088,7 +2989,6 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3099,9 +2999,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3173,29 +3070,27 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-005</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3203,7 +3098,6 @@
           <t>Baje Construction</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -3240,7 +3134,6 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3251,9 +3144,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3325,29 +3215,27 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-009</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="X19" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3355,7 +3243,6 @@
           <t>HOPE EFG Builders</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -3392,7 +3279,6 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3403,9 +3289,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3477,29 +3360,27 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
           <t>CAR-ABRA-2019-009</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>43628</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>43634</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>43650</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="3" t="n">
         <v>43662</v>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3507,7 +3388,6 @@
           <t>HOPE EFG Builders</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3544,7 +3424,6 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3555,9 +3434,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3634,9 +3510,6 @@
           <t>NOVEMBER 28,2019</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
           <t>JUNE 11, 2019</t>
@@ -3667,7 +3540,6 @@
           <t>EBJR CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3704,7 +3576,6 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3715,9 +3586,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3794,9 +3662,6 @@
           <t>NOVEMBER 28,2019</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>JUNE 11, 2019</t>
@@ -3827,7 +3692,6 @@
           <t>EBJR CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3864,7 +3728,6 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3875,9 +3738,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3954,9 +3814,6 @@
           <t>NOVEMBER 28,2019</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>JUNE 11, 2019</t>
@@ -3987,7 +3844,6 @@
           <t>EBJR CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
@@ -4024,7 +3880,6 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4035,9 +3890,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4098,7 +3950,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4107,16 +3958,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
           <t>2 failed biddings, 1 failed negotiated procurement, request for re-program</t>
@@ -4158,7 +3999,6 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4169,9 +4009,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4248,9 +4085,6 @@
           <t>NOVEMBER 28,2019</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
           <t>JUNE 11, 2019</t>
@@ -4281,7 +4115,6 @@
           <t>EBJR CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -4318,7 +4151,6 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4329,9 +4161,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4408,9 +4237,6 @@
           <t>NOVEMBER 28,2019</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
           <t>JUNE 11, 2019</t>
@@ -4441,7 +4267,6 @@
           <t>J.G. YACAS CONSTRUCTION, SUPPLY AND EQUIPMENT RENTALS</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
@@ -4478,7 +4303,6 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4489,9 +4313,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4568,9 +4389,6 @@
           <t>NOVEMBER 28,2019</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
           <t>JUNE 11, 2019</t>
@@ -4601,7 +4419,6 @@
           <t>EBJR CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -4638,7 +4455,6 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4649,9 +4465,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4728,9 +4541,6 @@
           <t>NOVEMBER 28,2019</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
           <t>JUNE 11, 2019</t>
@@ -4761,7 +4571,6 @@
           <t>J.G. YACAS CONSTRUCTION, SUPPLY AND EQUIPMENT RENTALS</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4798,7 +4607,6 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4809,9 +4617,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4888,9 +4693,6 @@
           <t>NOVEMBER 28,2019</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>JUNE 11, 2019</t>
@@ -4921,7 +4723,6 @@
           <t>EBJR CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4958,7 +4759,6 @@
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4969,9 +4769,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5043,10 +4840,9 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>43953</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>001,s.2020</t>
@@ -5057,19 +4853,19 @@
           <t>001,s.2020</t>
         </is>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>43789</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>44176</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="X30" s="2" t="n">
+      <c r="X30" s="3" t="n">
         <v>43878</v>
       </c>
       <c r="Y30" t="inlineStr">
@@ -5077,7 +4873,6 @@
           <t>JJJ-A  Construction and Supplier</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -5114,7 +4909,6 @@
       <c r="AL30" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -5125,9 +4919,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5204,16 +4995,6 @@
           <t>January 12, 2020</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -5250,7 +5031,6 @@
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -5261,9 +5041,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5340,16 +5117,6 @@
           <t>January 8, 2020</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -5386,7 +5153,6 @@
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -5397,9 +5163,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5476,16 +5239,6 @@
           <t>January 8, 2020</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -5522,7 +5275,6 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -5533,9 +5285,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5612,16 +5361,6 @@
           <t>January 8, 2020</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -5658,7 +5397,6 @@
       <c r="AL34" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -5669,9 +5407,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5732,7 +5467,6 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5741,17 +5475,6 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5788,7 +5511,6 @@
       <c r="AL35" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -5799,9 +5521,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5862,7 +5581,6 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5871,17 +5589,6 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5918,7 +5625,6 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -5929,9 +5635,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5992,7 +5695,6 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6001,17 +5703,6 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -6048,7 +5739,6 @@
       <c r="AL37" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -6059,9 +5749,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6122,7 +5809,6 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6131,17 +5817,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -6178,7 +5853,6 @@
       <c r="AL38" t="n">
         <v>0</v>
       </c>
-      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -6189,9 +5863,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6252,7 +5923,6 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6261,17 +5931,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -6308,7 +5967,6 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -6319,9 +5977,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6382,7 +6037,6 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6391,17 +6045,6 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -6438,7 +6081,6 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
-      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -6449,9 +6091,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6514,7 +6153,6 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6523,17 +6161,6 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -6570,7 +6197,6 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -6581,9 +6207,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6644,7 +6267,6 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6653,17 +6275,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -6700,7 +6311,6 @@
       <c r="AL42" t="n">
         <v>0</v>
       </c>
-      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -6711,9 +6321,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6774,7 +6381,6 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6783,17 +6389,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -6830,7 +6425,6 @@
       <c r="AL43" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -6841,9 +6435,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6906,7 +6497,6 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6915,17 +6505,6 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -6962,7 +6541,6 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -6973,9 +6551,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -7038,7 +6613,6 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7047,17 +6621,6 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -7094,7 +6657,6 @@
       <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -7105,9 +6667,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -7168,7 +6727,6 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7177,17 +6735,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -7224,7 +6771,6 @@
       <c r="AL46" t="n">
         <v>0</v>
       </c>
-      <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -7235,9 +6781,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -7298,7 +6841,6 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7307,17 +6849,6 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -7354,7 +6885,6 @@
       <c r="AL47" t="n">
         <v>0</v>
       </c>
-      <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -7365,9 +6895,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -7430,7 +6957,6 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7439,17 +6965,6 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -7486,7 +7001,6 @@
       <c r="AL48" t="n">
         <v>0</v>
       </c>
-      <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -7497,9 +7011,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -7562,7 +7073,6 @@
       <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7571,17 +7081,6 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
@@ -7618,7 +7117,6 @@
       <c r="AL49" t="n">
         <v>0</v>
       </c>
-      <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -7629,9 +7127,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -7692,7 +7187,6 @@
       <c r="L50" t="n">
         <v>1</v>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7701,16 +7195,6 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
           <t xml:space="preserve">Contractor's Fault, </t>
@@ -7763,9 +7247,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -7826,7 +7307,6 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7835,16 +7315,6 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
           <t xml:space="preserve">Contractor's Fault, </t>
@@ -7897,9 +7367,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -7960,7 +7427,6 @@
       <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7969,17 +7435,6 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
@@ -8016,7 +7471,6 @@
       <c r="AL52" t="n">
         <v>0</v>
       </c>
-      <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -8027,9 +7481,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -8090,7 +7541,6 @@
       <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8099,17 +7549,6 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
@@ -8146,7 +7585,6 @@
       <c r="AL53" t="n">
         <v>0</v>
       </c>
-      <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -8157,9 +7595,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8220,7 +7655,6 @@
       <c r="L54" t="n">
         <v>1</v>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8229,17 +7663,6 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
@@ -8276,7 +7699,6 @@
       <c r="AL54" t="n">
         <v>0</v>
       </c>
-      <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -8287,9 +7709,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -8350,7 +7769,6 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Reverted</t>
@@ -8359,16 +7777,6 @@
       <c r="O55" t="n">
         <v>0</v>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
           <t>Procurement Issues</t>
@@ -8410,16 +7818,11 @@
       <c r="AL55" t="n">
         <v>0</v>
       </c>
-      <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr">
         <is>
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8480,7 +7883,6 @@
       <c r="L56" t="n">
         <v>1</v>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8489,17 +7891,6 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
@@ -8536,7 +7927,6 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -8547,9 +7937,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8610,7 +7997,6 @@
       <c r="L57" t="n">
         <v>1</v>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Reverted</t>
@@ -8619,16 +8005,6 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
           <t>for award;BAC problem</t>
@@ -8670,16 +8046,11 @@
       <c r="AL57" t="n">
         <v>0</v>
       </c>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr">
         <is>
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8740,7 +8111,6 @@
       <c r="L58" t="n">
         <v>1</v>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8749,17 +8119,6 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
@@ -8796,7 +8155,6 @@
       <c r="AL58" t="n">
         <v>0</v>
       </c>
-      <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -8807,9 +8165,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8870,7 +8225,6 @@
       <c r="L59" t="n">
         <v>1</v>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8879,17 +8233,6 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
@@ -8926,7 +8269,6 @@
       <c r="AL59" t="n">
         <v>0</v>
       </c>
-      <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -8937,9 +8279,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9000,7 +8339,6 @@
       <c r="L60" t="n">
         <v>1</v>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9009,17 +8347,6 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>0</v>
       </c>
@@ -9056,7 +8383,6 @@
       <c r="AL60" t="n">
         <v>0</v>
       </c>
-      <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -9067,9 +8393,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9130,7 +8453,6 @@
       <c r="L61" t="n">
         <v>1</v>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9139,17 +8461,6 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
@@ -9186,7 +8497,6 @@
       <c r="AL61" t="n">
         <v>0</v>
       </c>
-      <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -9197,9 +8507,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9260,7 +8567,6 @@
       <c r="L62" t="n">
         <v>1</v>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9269,17 +8575,6 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
@@ -9316,7 +8611,6 @@
       <c r="AL62" t="n">
         <v>0</v>
       </c>
-      <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -9327,9 +8621,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9390,7 +8681,6 @@
       <c r="L63" t="n">
         <v>1</v>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9399,17 +8689,6 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
         <v>0</v>
       </c>
@@ -9446,7 +8725,6 @@
       <c r="AL63" t="n">
         <v>0</v>
       </c>
-      <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -9457,9 +8735,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP63" t="inlineStr"/>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -9520,7 +8795,6 @@
       <c r="L64" t="n">
         <v>1</v>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9529,17 +8803,6 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
@@ -9576,7 +8839,6 @@
       <c r="AL64" t="n">
         <v>0</v>
       </c>
-      <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -9587,9 +8849,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -9650,7 +8909,6 @@
       <c r="L65" t="n">
         <v>1</v>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9659,17 +8917,6 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="n">
         <v>0</v>
       </c>
@@ -9706,7 +8953,6 @@
       <c r="AL65" t="n">
         <v>0</v>
       </c>
-      <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -9717,9 +8963,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP65" t="inlineStr"/>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9780,7 +9023,6 @@
       <c r="L66" t="n">
         <v>1</v>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9789,17 +9031,6 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="n">
         <v>0</v>
       </c>
@@ -9836,7 +9067,6 @@
       <c r="AL66" t="n">
         <v>0</v>
       </c>
-      <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -9847,9 +9077,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP66" t="inlineStr"/>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -9910,7 +9137,6 @@
       <c r="L67" t="n">
         <v>1</v>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9919,17 +9145,6 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="n">
         <v>0</v>
       </c>
@@ -9966,7 +9181,6 @@
       <c r="AL67" t="n">
         <v>0</v>
       </c>
-      <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -9977,9 +9191,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -10040,7 +9251,6 @@
       <c r="L68" t="n">
         <v>1</v>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10049,17 +9259,6 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="n">
         <v>0</v>
       </c>
@@ -10096,7 +9295,6 @@
       <c r="AL68" t="n">
         <v>0</v>
       </c>
-      <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -10107,9 +9305,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP68" t="inlineStr"/>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10170,7 +9365,6 @@
       <c r="L69" t="n">
         <v>1</v>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10179,17 +9373,6 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>0</v>
       </c>
@@ -10226,7 +9409,6 @@
       <c r="AL69" t="n">
         <v>0</v>
       </c>
-      <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -10237,9 +9419,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP69" t="inlineStr"/>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10300,7 +9479,6 @@
       <c r="L70" t="n">
         <v>1</v>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10309,17 +9487,6 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
         <v>0</v>
       </c>
@@ -10356,7 +9523,6 @@
       <c r="AL70" t="n">
         <v>0</v>
       </c>
-      <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -10367,9 +9533,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10430,7 +9593,6 @@
       <c r="L71" t="n">
         <v>1</v>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10439,17 +9601,6 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
@@ -10486,7 +9637,6 @@
       <c r="AL71" t="n">
         <v>0</v>
       </c>
-      <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -10497,9 +9647,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -10560,7 +9707,6 @@
       <c r="L72" t="n">
         <v>1</v>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10569,17 +9715,6 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -10616,7 +9751,6 @@
       <c r="AL72" t="n">
         <v>0</v>
       </c>
-      <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -10627,9 +9761,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10690,7 +9821,6 @@
       <c r="L73" t="n">
         <v>1</v>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10699,17 +9829,6 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="n">
         <v>0</v>
       </c>
@@ -10746,7 +9865,6 @@
       <c r="AL73" t="n">
         <v>0</v>
       </c>
-      <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -10757,9 +9875,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10820,7 +9935,6 @@
       <c r="L74" t="n">
         <v>1</v>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10829,17 +9943,6 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="n">
         <v>0</v>
       </c>
@@ -10876,7 +9979,6 @@
       <c r="AL74" t="n">
         <v>0</v>
       </c>
-      <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -10887,9 +9989,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP74" t="inlineStr"/>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10950,7 +10049,6 @@
       <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10959,17 +10057,6 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
         <v>0</v>
       </c>
@@ -11006,7 +10093,6 @@
       <c r="AL75" t="n">
         <v>0</v>
       </c>
-      <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -11017,9 +10103,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP75" t="inlineStr"/>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -11080,7 +10163,6 @@
       <c r="L76" t="n">
         <v>1</v>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11089,17 +10171,6 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="n">
         <v>0</v>
       </c>
@@ -11136,7 +10207,6 @@
       <c r="AL76" t="n">
         <v>0</v>
       </c>
-      <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -11147,9 +10217,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -11210,7 +10277,6 @@
       <c r="L77" t="n">
         <v>1</v>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11219,17 +10285,6 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="n">
         <v>0</v>
       </c>
@@ -11266,7 +10321,6 @@
       <c r="AL77" t="n">
         <v>0</v>
       </c>
-      <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -11277,9 +10331,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -11340,7 +10391,6 @@
       <c r="L78" t="n">
         <v>1</v>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11349,17 +10399,6 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>0</v>
       </c>
@@ -11396,7 +10435,6 @@
       <c r="AL78" t="n">
         <v>0</v>
       </c>
-      <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -11407,9 +10445,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11470,7 +10505,6 @@
       <c r="L79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11479,17 +10513,6 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
         <v>0</v>
       </c>
@@ -11526,7 +10549,6 @@
       <c r="AL79" t="n">
         <v>0</v>
       </c>
-      <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -11537,9 +10559,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11600,7 +10619,6 @@
       <c r="L80" t="n">
         <v>1</v>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11609,17 +10627,6 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>0</v>
       </c>
@@ -11656,7 +10663,6 @@
       <c r="AL80" t="n">
         <v>0</v>
       </c>
-      <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -11667,9 +10673,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP80" t="inlineStr"/>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11730,7 +10733,6 @@
       <c r="L81" t="n">
         <v>1</v>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11739,17 +10741,6 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="n">
         <v>0</v>
       </c>
@@ -11786,7 +10777,6 @@
       <c r="AL81" t="n">
         <v>0</v>
       </c>
-      <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -11797,9 +10787,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11860,7 +10847,6 @@
       <c r="L82" t="n">
         <v>1</v>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11869,17 +10855,6 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="n">
         <v>0</v>
       </c>
@@ -11916,7 +10891,6 @@
       <c r="AL82" t="n">
         <v>0</v>
       </c>
-      <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -11927,9 +10901,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -11990,7 +10961,6 @@
       <c r="L83" t="n">
         <v>1</v>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11999,17 +10969,6 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="n">
         <v>0</v>
       </c>
@@ -12046,7 +11005,6 @@
       <c r="AL83" t="n">
         <v>0</v>
       </c>
-      <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -12057,9 +11015,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12120,7 +11075,6 @@
       <c r="L84" t="n">
         <v>1</v>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12129,17 +11083,6 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="n">
         <v>0</v>
       </c>
@@ -12176,7 +11119,6 @@
       <c r="AL84" t="n">
         <v>0</v>
       </c>
-      <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -12187,9 +11129,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -12250,7 +11189,6 @@
       <c r="L85" t="n">
         <v>1</v>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12259,17 +11197,6 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
@@ -12306,7 +11233,6 @@
       <c r="AL85" t="n">
         <v>0</v>
       </c>
-      <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -12317,9 +11243,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12380,7 +11303,6 @@
       <c r="L86" t="n">
         <v>1</v>
       </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12389,17 +11311,6 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="n">
         <v>0</v>
       </c>
@@ -12436,7 +11347,6 @@
       <c r="AL86" t="n">
         <v>0</v>
       </c>
-      <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -12447,9 +11357,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -12510,7 +11417,6 @@
       <c r="L87" t="n">
         <v>1</v>
       </c>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12519,17 +11425,6 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="n">
         <v>0</v>
       </c>
@@ -12566,7 +11461,6 @@
       <c r="AL87" t="n">
         <v>0</v>
       </c>
-      <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -12577,9 +11471,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP87" t="inlineStr"/>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -12640,7 +11531,6 @@
       <c r="L88" t="n">
         <v>1</v>
       </c>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12649,17 +11539,6 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="n">
         <v>0</v>
       </c>
@@ -12696,7 +11575,6 @@
       <c r="AL88" t="n">
         <v>0</v>
       </c>
-      <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -12707,9 +11585,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12770,7 +11645,6 @@
       <c r="L89" t="n">
         <v>1</v>
       </c>
-      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12779,17 +11653,6 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
         <v>0</v>
       </c>
@@ -12826,7 +11689,6 @@
       <c r="AL89" t="n">
         <v>0</v>
       </c>
-      <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -12837,9 +11699,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -12900,7 +11759,6 @@
       <c r="L90" t="n">
         <v>1</v>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12909,17 +11767,6 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="n">
         <v>0</v>
       </c>
@@ -12956,7 +11803,6 @@
       <c r="AL90" t="n">
         <v>0</v>
       </c>
-      <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -12967,9 +11813,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13030,7 +11873,6 @@
       <c r="L91" t="n">
         <v>1</v>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13039,17 +11881,6 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="n">
         <v>0</v>
       </c>
@@ -13086,7 +11917,6 @@
       <c r="AL91" t="n">
         <v>0</v>
       </c>
-      <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -13097,9 +11927,6 @@
           <t>TY OMPONG / TY ROSITA</t>
         </is>
       </c>
-      <c r="AP91" t="inlineStr"/>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -13160,7 +11987,6 @@
       <c r="L92" t="n">
         <v>1</v>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13169,17 +11995,6 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="n">
         <v>0</v>
       </c>
@@ -13216,7 +12031,6 @@
       <c r="AL92" t="n">
         <v>0</v>
       </c>
-      <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -13227,9 +12041,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP92" t="inlineStr"/>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13290,7 +12101,6 @@
       <c r="L93" t="n">
         <v>1</v>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13299,17 +12109,6 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="n">
         <v>0</v>
       </c>
@@ -13346,7 +12145,6 @@
       <c r="AL93" t="n">
         <v>0</v>
       </c>
-      <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -13357,9 +12155,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP93" t="inlineStr"/>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -13420,7 +12215,6 @@
       <c r="L94" t="n">
         <v>1</v>
       </c>
-      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13429,17 +12223,6 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="n">
         <v>0</v>
       </c>
@@ -13476,7 +12259,6 @@
       <c r="AL94" t="n">
         <v>0</v>
       </c>
-      <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -13487,9 +12269,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP94" t="inlineStr"/>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -13550,7 +12329,6 @@
       <c r="L95" t="n">
         <v>1</v>
       </c>
-      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13559,17 +12337,6 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="n">
         <v>0</v>
       </c>
@@ -13606,7 +12373,6 @@
       <c r="AL95" t="n">
         <v>0</v>
       </c>
-      <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -13617,9 +12383,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -13680,7 +12443,6 @@
       <c r="L96" t="n">
         <v>1</v>
       </c>
-      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13689,17 +12451,6 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="n">
         <v>0</v>
       </c>
@@ -13736,7 +12487,6 @@
       <c r="AL96" t="n">
         <v>0</v>
       </c>
-      <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -13747,9 +12497,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -13810,7 +12557,6 @@
       <c r="L97" t="n">
         <v>1</v>
       </c>
-      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13819,17 +12565,6 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="n">
         <v>0</v>
       </c>
@@ -13866,7 +12601,6 @@
       <c r="AL97" t="n">
         <v>0</v>
       </c>
-      <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -13877,9 +12611,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP97" t="inlineStr"/>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13940,7 +12671,6 @@
       <c r="L98" t="n">
         <v>1</v>
       </c>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13949,17 +12679,6 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="n">
         <v>0</v>
       </c>
@@ -13996,7 +12715,6 @@
       <c r="AL98" t="n">
         <v>0</v>
       </c>
-      <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -14007,9 +12725,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP98" t="inlineStr"/>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14070,7 +12785,6 @@
       <c r="L99" t="n">
         <v>1</v>
       </c>
-      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14079,17 +12793,6 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="n">
         <v>0</v>
       </c>
@@ -14126,7 +12829,6 @@
       <c r="AL99" t="n">
         <v>0</v>
       </c>
-      <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -14137,9 +12839,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
       <c r="AS99" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14200,7 +12899,6 @@
       <c r="L100" t="n">
         <v>1</v>
       </c>
-      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14209,17 +12907,6 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="n">
         <v>0</v>
       </c>
@@ -14256,7 +12943,6 @@
       <c r="AL100" t="n">
         <v>0</v>
       </c>
-      <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -14267,9 +12953,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP100" t="inlineStr"/>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14330,7 +13013,6 @@
       <c r="L101" t="n">
         <v>1</v>
       </c>
-      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14339,17 +13021,6 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
         <v>0</v>
       </c>
@@ -14386,7 +13057,6 @@
       <c r="AL101" t="n">
         <v>0</v>
       </c>
-      <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -14397,9 +13067,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP101" t="inlineStr"/>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14460,7 +13127,6 @@
       <c r="L102" t="n">
         <v>1</v>
       </c>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14469,17 +13135,6 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
         <v>0</v>
       </c>
@@ -14516,7 +13171,6 @@
       <c r="AL102" t="n">
         <v>0</v>
       </c>
-      <c r="AM102" t="inlineStr"/>
       <c r="AN102" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -14527,9 +13181,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP102" t="inlineStr"/>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -14590,7 +13241,6 @@
       <c r="L103" t="n">
         <v>1</v>
       </c>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14599,17 +13249,6 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="n">
         <v>0</v>
       </c>
@@ -14646,7 +13285,6 @@
       <c r="AL103" t="n">
         <v>0</v>
       </c>
-      <c r="AM103" t="inlineStr"/>
       <c r="AN103" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -14657,9 +13295,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP103" t="inlineStr"/>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
       <c r="AS103" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14720,7 +13355,6 @@
       <c r="L104" t="n">
         <v>1</v>
       </c>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14729,17 +13363,6 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="n">
         <v>0</v>
       </c>
@@ -14776,7 +13399,6 @@
       <c r="AL104" t="n">
         <v>0</v>
       </c>
-      <c r="AM104" t="inlineStr"/>
       <c r="AN104" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -14787,9 +13409,6 @@
           <t>TY OMPONG/TY KAREN LAWIN/TY ROSITA</t>
         </is>
       </c>
-      <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
       <c r="AS104" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14852,7 +13471,6 @@
       <c r="L105" t="n">
         <v>1</v>
       </c>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
           <t>completed</t>
@@ -14861,17 +13479,6 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="n">
         <v>0</v>
       </c>
@@ -14908,7 +13515,6 @@
       <c r="AL105" t="n">
         <v>0</v>
       </c>
-      <c r="AM105" t="inlineStr"/>
       <c r="AN105" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -14919,9 +13525,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -14982,7 +13585,6 @@
       <c r="L106" t="n">
         <v>1</v>
       </c>
-      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14991,17 +13593,6 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="n">
         <v>0</v>
       </c>
@@ -15038,7 +13629,6 @@
       <c r="AL106" t="n">
         <v>0</v>
       </c>
-      <c r="AM106" t="inlineStr"/>
       <c r="AN106" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -15049,9 +13639,6 @@
           <t>TY ROSITA</t>
         </is>
       </c>
-      <c r="AP106" t="inlineStr"/>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
       <c r="AS106" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -15098,7 +13685,6 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -15110,7 +13696,6 @@
       <c r="L107" t="n">
         <v>1</v>
       </c>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15119,17 +13704,6 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="n">
         <v>0</v>
       </c>
@@ -15166,16 +13740,11 @@
       <c r="AL107" t="n">
         <v>0</v>
       </c>
-      <c r="AM107" t="inlineStr"/>
       <c r="AN107" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO107" t="inlineStr"/>
-      <c r="AP107" t="inlineStr"/>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -15222,7 +13791,6 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -15234,7 +13802,6 @@
       <c r="L108" t="n">
         <v>1</v>
       </c>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15243,17 +13810,6 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="n">
         <v>0</v>
       </c>
@@ -15290,16 +13846,11 @@
       <c r="AL108" t="n">
         <v>0</v>
       </c>
-      <c r="AM108" t="inlineStr"/>
       <c r="AN108" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -15346,7 +13897,6 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -15358,7 +13908,6 @@
       <c r="L109" t="n">
         <v>1</v>
       </c>
-      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15367,17 +13916,6 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="n">
         <v>0</v>
       </c>
@@ -15414,16 +13952,11 @@
       <c r="AL109" t="n">
         <v>0</v>
       </c>
-      <c r="AM109" t="inlineStr"/>
       <c r="AN109" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -15470,7 +14003,6 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -15482,7 +14014,6 @@
       <c r="L110" t="n">
         <v>1</v>
       </c>
-      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15491,17 +14022,6 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="n">
         <v>0</v>
       </c>
@@ -15538,16 +14058,11 @@
       <c r="AL110" t="n">
         <v>0</v>
       </c>
-      <c r="AM110" t="inlineStr"/>
       <c r="AN110" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -15594,7 +14109,6 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -15606,7 +14120,6 @@
       <c r="L111" t="n">
         <v>1</v>
       </c>
-      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15615,17 +14128,6 @@
       <c r="O111" t="n">
         <v>1</v>
       </c>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="n">
         <v>0</v>
       </c>
@@ -15662,16 +14164,11 @@
       <c r="AL111" t="n">
         <v>0</v>
       </c>
-      <c r="AM111" t="inlineStr"/>
       <c r="AN111" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -15718,7 +14215,6 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -15730,7 +14226,6 @@
       <c r="L112" t="n">
         <v>1</v>
       </c>
-      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15739,17 +14234,6 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="n">
         <v>0</v>
       </c>
@@ -15786,16 +14270,11 @@
       <c r="AL112" t="n">
         <v>0</v>
       </c>
-      <c r="AM112" t="inlineStr"/>
       <c r="AN112" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO112" t="inlineStr"/>
-      <c r="AP112" t="inlineStr"/>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -15842,7 +14321,6 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -15854,7 +14332,6 @@
       <c r="L113" t="n">
         <v>1</v>
       </c>
-      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15863,17 +14340,6 @@
       <c r="O113" t="n">
         <v>1</v>
       </c>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="n">
         <v>0</v>
       </c>
@@ -15910,16 +14376,11 @@
       <c r="AL113" t="n">
         <v>0</v>
       </c>
-      <c r="AM113" t="inlineStr"/>
       <c r="AN113" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO113" t="inlineStr"/>
-      <c r="AP113" t="inlineStr"/>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
       <c r="AS113" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -15966,7 +14427,6 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -15978,7 +14438,6 @@
       <c r="L114" t="n">
         <v>1</v>
       </c>
-      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15987,17 +14446,6 @@
       <c r="O114" t="n">
         <v>1</v>
       </c>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="n">
         <v>0</v>
       </c>
@@ -16034,16 +14482,11 @@
       <c r="AL114" t="n">
         <v>0</v>
       </c>
-      <c r="AM114" t="inlineStr"/>
       <c r="AN114" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO114" t="inlineStr"/>
-      <c r="AP114" t="inlineStr"/>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -16090,7 +14533,6 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -16113,16 +14555,6 @@
       <c r="O115" t="n">
         <v>1</v>
       </c>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
           <t>Suspended</t>
@@ -16164,16 +14596,11 @@
       <c r="AL115" t="n">
         <v>0</v>
       </c>
-      <c r="AM115" t="inlineStr"/>
       <c r="AN115" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO115" t="inlineStr"/>
-      <c r="AP115" t="inlineStr"/>
-      <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
       <c r="AS115" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -16220,7 +14647,6 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -16232,7 +14658,6 @@
       <c r="L116" t="n">
         <v>1</v>
       </c>
-      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16241,17 +14666,6 @@
       <c r="O116" t="n">
         <v>1</v>
       </c>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="n">
         <v>0</v>
       </c>
@@ -16288,16 +14702,11 @@
       <c r="AL116" t="n">
         <v>0</v>
       </c>
-      <c r="AM116" t="inlineStr"/>
       <c r="AN116" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO116" t="inlineStr"/>
-      <c r="AP116" t="inlineStr"/>
-      <c r="AQ116" t="inlineStr"/>
-      <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -16344,7 +14753,6 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -16356,7 +14764,6 @@
       <c r="L117" t="n">
         <v>1</v>
       </c>
-      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16365,17 +14772,6 @@
       <c r="O117" t="n">
         <v>1</v>
       </c>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="n">
         <v>0</v>
       </c>
@@ -16412,16 +14808,11 @@
       <c r="AL117" t="n">
         <v>0</v>
       </c>
-      <c r="AM117" t="inlineStr"/>
       <c r="AN117" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO117" t="inlineStr"/>
-      <c r="AP117" t="inlineStr"/>
-      <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
       <c r="AS117" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -16468,7 +14859,6 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -16480,7 +14870,6 @@
       <c r="L118" t="n">
         <v>1</v>
       </c>
-      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16489,17 +14878,6 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="n">
         <v>0</v>
       </c>
@@ -16536,16 +14914,11 @@
       <c r="AL118" t="n">
         <v>0</v>
       </c>
-      <c r="AM118" t="inlineStr"/>
       <c r="AN118" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO118" t="inlineStr"/>
-      <c r="AP118" t="inlineStr"/>
-      <c r="AQ118" t="inlineStr"/>
-      <c r="AR118" t="inlineStr"/>
       <c r="AS118" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -16592,7 +14965,6 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -16615,15 +14987,7 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" s="2" t="n">
+      <c r="X119" s="3" t="n">
         <v>44159</v>
       </c>
       <c r="Y119" t="inlineStr">
@@ -16631,7 +14995,6 @@
           <t>BOYET CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="n">
         <v>0</v>
       </c>
@@ -16668,16 +15031,11 @@
       <c r="AL119" t="n">
         <v>0</v>
       </c>
-      <c r="AM119" t="inlineStr"/>
       <c r="AN119" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO119" t="inlineStr"/>
-      <c r="AP119" t="inlineStr"/>
-      <c r="AQ119" t="inlineStr"/>
-      <c r="AR119" t="inlineStr"/>
       <c r="AS119" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -16727,7 +15085,6 @@
       <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
         <v>671652.1902824999</v>
       </c>
@@ -16745,19 +15102,9 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="P120" s="2" t="n">
+      <c r="P120" s="3" t="n">
         <v>44535</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="n">
         <v>0</v>
       </c>
@@ -16794,16 +15141,11 @@
       <c r="AL120" t="n">
         <v>0</v>
       </c>
-      <c r="AM120" t="inlineStr"/>
       <c r="AN120" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO120" t="inlineStr"/>
-      <c r="AP120" t="inlineStr"/>
-      <c r="AQ120" t="inlineStr"/>
-      <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -16853,7 +15195,6 @@
       <c r="I121" t="n">
         <v>13</v>
       </c>
-      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>6595350.19</v>
       </c>
@@ -16871,19 +15212,9 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" s="2" t="n">
+      <c r="P121" s="3" t="n">
         <v>44678</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="n">
         <v>0</v>
       </c>
@@ -16920,16 +15251,11 @@
       <c r="AL121" t="n">
         <v>0</v>
       </c>
-      <c r="AM121" t="inlineStr"/>
       <c r="AN121" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO121" t="inlineStr"/>
-      <c r="AP121" t="inlineStr"/>
-      <c r="AQ121" t="inlineStr"/>
-      <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -17001,31 +15327,30 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="P122" s="2" t="n">
+      <c r="P122" s="3" t="n">
         <v>44485</v>
       </c>
-      <c r="Q122" s="2" t="n">
+      <c r="Q122" s="3" t="n">
         <v>44484</v>
       </c>
-      <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr">
         <is>
           <t>INF-2021 R-013</t>
         </is>
       </c>
-      <c r="T122" s="2" t="n">
+      <c r="T122" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U122" s="2" t="n">
+      <c r="U122" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V122" s="2" t="n">
+      <c r="V122" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W122" s="2" t="n">
+      <c r="W122" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X122" s="2" t="n">
+      <c r="X122" s="3" t="n">
         <v>44425</v>
       </c>
       <c r="Y122" t="inlineStr">
@@ -17074,16 +15399,11 @@
       <c r="AL122" t="n">
         <v>0</v>
       </c>
-      <c r="AM122" t="inlineStr"/>
       <c r="AN122" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO122" t="inlineStr"/>
-      <c r="AP122" t="inlineStr"/>
-      <c r="AQ122" t="inlineStr"/>
-      <c r="AR122" t="inlineStr"/>
       <c r="AS122" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -17155,27 +15475,25 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="P123" s="2" t="n">
+      <c r="P123" s="3" t="n">
         <v>44558</v>
       </c>
-      <c r="Q123" s="2" t="n">
+      <c r="Q123" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" s="2" t="n">
+      <c r="T123" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U123" s="2" t="n">
+      <c r="U123" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V123" s="2" t="n">
+      <c r="V123" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W123" s="2" t="n">
+      <c r="W123" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X123" s="2" t="n">
+      <c r="X123" s="3" t="n">
         <v>44468</v>
       </c>
       <c r="Y123" t="inlineStr">
@@ -17183,7 +15501,6 @@
           <t>JBA Construction &amp; Builders</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="n">
         <v>0</v>
       </c>
@@ -17220,16 +15537,11 @@
       <c r="AL123" t="n">
         <v>0</v>
       </c>
-      <c r="AM123" t="inlineStr"/>
       <c r="AN123" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO123" t="inlineStr"/>
-      <c r="AP123" t="inlineStr"/>
-      <c r="AQ123" t="inlineStr"/>
-      <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -17301,27 +15613,25 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="P124" s="2" t="n">
+      <c r="P124" s="3" t="n">
         <v>44558</v>
       </c>
-      <c r="Q124" s="2" t="n">
+      <c r="Q124" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" s="2" t="n">
+      <c r="T124" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U124" s="2" t="n">
+      <c r="U124" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V124" s="2" t="n">
+      <c r="V124" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="W124" s="2" t="n">
+      <c r="W124" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X124" s="2" t="n">
+      <c r="X124" s="3" t="n">
         <v>44468</v>
       </c>
       <c r="Y124" t="inlineStr">
@@ -17329,7 +15639,6 @@
           <t>Litangfan Const'n Services</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="n">
         <v>0</v>
       </c>
@@ -17366,16 +15675,11 @@
       <c r="AL124" t="n">
         <v>0</v>
       </c>
-      <c r="AM124" t="inlineStr"/>
       <c r="AN124" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO124" t="inlineStr"/>
-      <c r="AP124" t="inlineStr"/>
-      <c r="AQ124" t="inlineStr"/>
-      <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -17447,27 +15751,25 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="P125" s="2" t="n">
+      <c r="P125" s="3" t="n">
         <v>44558</v>
       </c>
-      <c r="Q125" s="2" t="n">
+      <c r="Q125" s="3" t="n">
         <v>44592</v>
       </c>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" s="2" t="n">
+      <c r="T125" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U125" s="2" t="n">
+      <c r="U125" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V125" s="2" t="n">
+      <c r="V125" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W125" s="2" t="n">
+      <c r="W125" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X125" s="2" t="n">
+      <c r="X125" s="3" t="n">
         <v>44468</v>
       </c>
       <c r="Y125" t="inlineStr">
@@ -17516,16 +15818,11 @@
       <c r="AL125" t="n">
         <v>0</v>
       </c>
-      <c r="AM125" t="inlineStr"/>
       <c r="AN125" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO125" t="inlineStr"/>
-      <c r="AP125" t="inlineStr"/>
-      <c r="AQ125" t="inlineStr"/>
-      <c r="AR125" t="inlineStr"/>
       <c r="AS125" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -17569,7 +15866,6 @@
       <c r="G126" t="n">
         <v>0</v>
       </c>
-      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
         <v>2</v>
       </c>
@@ -17595,31 +15891,30 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="P126" s="2" t="n">
+      <c r="P126" s="3" t="n">
         <v>44564</v>
       </c>
-      <c r="Q126" s="2" t="n">
+      <c r="Q126" s="3" t="n">
         <v>44592</v>
       </c>
-      <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr">
         <is>
           <t>INF-2021 QNC-022</t>
         </is>
       </c>
-      <c r="T126" s="2" t="n">
+      <c r="T126" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U126" s="2" t="n">
+      <c r="U126" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V126" s="2" t="n">
+      <c r="V126" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="W126" s="2" t="n">
+      <c r="W126" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X126" s="2" t="n">
+      <c r="X126" s="3" t="n">
         <v>44414</v>
       </c>
       <c r="Y126" t="inlineStr">
@@ -17668,16 +15963,11 @@
       <c r="AL126" t="n">
         <v>0</v>
       </c>
-      <c r="AM126" t="inlineStr"/>
       <c r="AN126" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO126" t="inlineStr"/>
-      <c r="AP126" t="inlineStr"/>
-      <c r="AQ126" t="inlineStr"/>
-      <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -17749,31 +16039,30 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="P127" s="2" t="n">
+      <c r="P127" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="Q127" s="2" t="n">
+      <c r="Q127" s="3" t="n">
         <v>44620</v>
       </c>
-      <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr">
         <is>
           <t>INF-2021 QNC-023</t>
         </is>
       </c>
-      <c r="T127" s="2" t="n">
+      <c r="T127" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U127" s="2" t="n">
+      <c r="U127" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V127" s="2" t="n">
+      <c r="V127" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="W127" s="2" t="n">
+      <c r="W127" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X127" s="2" t="n">
+      <c r="X127" s="3" t="n">
         <v>44421</v>
       </c>
       <c r="Y127" t="inlineStr">
@@ -17781,7 +16070,6 @@
           <t>Litangfan Const'n Services</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="n">
         <v>0</v>
       </c>
@@ -17818,16 +16106,11 @@
       <c r="AL127" t="n">
         <v>0</v>
       </c>
-      <c r="AM127" t="inlineStr"/>
       <c r="AN127" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO127" t="inlineStr"/>
-      <c r="AP127" t="inlineStr"/>
-      <c r="AQ127" t="inlineStr"/>
-      <c r="AR127" t="inlineStr"/>
       <c r="AS127" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -17899,27 +16182,25 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="P128" s="2" t="n">
+      <c r="P128" s="3" t="n">
         <v>44558</v>
       </c>
-      <c r="Q128" s="2" t="n">
+      <c r="Q128" s="3" t="n">
         <v>44705</v>
       </c>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" s="2" t="n">
+      <c r="T128" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U128" s="2" t="n">
+      <c r="U128" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V128" s="2" t="n">
+      <c r="V128" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W128" s="2" t="n">
+      <c r="W128" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X128" s="2" t="n">
+      <c r="X128" s="3" t="n">
         <v>44468</v>
       </c>
       <c r="Y128" t="inlineStr">
@@ -17968,16 +16249,11 @@
       <c r="AL128" t="n">
         <v>0</v>
       </c>
-      <c r="AM128" t="inlineStr"/>
       <c r="AN128" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO128" t="inlineStr"/>
-      <c r="AP128" t="inlineStr"/>
-      <c r="AQ128" t="inlineStr"/>
-      <c r="AR128" t="inlineStr"/>
       <c r="AS128" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -18049,31 +16325,30 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="P129" s="2" t="n">
+      <c r="P129" s="3" t="n">
         <v>44496</v>
       </c>
-      <c r="Q129" s="2" t="n">
+      <c r="Q129" s="3" t="n">
         <v>44489</v>
       </c>
-      <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr">
         <is>
           <t>INF-2021 R-021</t>
         </is>
       </c>
-      <c r="T129" s="2" t="n">
+      <c r="T129" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U129" s="2" t="n">
+      <c r="U129" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V129" s="2" t="n">
+      <c r="V129" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W129" s="2" t="n">
+      <c r="W129" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X129" s="2" t="n">
+      <c r="X129" s="3" t="n">
         <v>44421</v>
       </c>
       <c r="Y129" t="inlineStr">
@@ -18081,7 +16356,6 @@
           <t>Sembri Const'n</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="n">
         <v>0</v>
       </c>
@@ -18118,16 +16392,11 @@
       <c r="AL129" t="n">
         <v>0</v>
       </c>
-      <c r="AM129" t="inlineStr"/>
       <c r="AN129" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO129" t="inlineStr"/>
-      <c r="AP129" t="inlineStr"/>
-      <c r="AQ129" t="inlineStr"/>
-      <c r="AR129" t="inlineStr"/>
       <c r="AS129" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -18199,25 +16468,22 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="P130" s="2" t="n">
+      <c r="P130" s="3" t="n">
         <v>44676</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" s="2" t="n">
+      <c r="T130" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U130" s="2" t="n">
+      <c r="U130" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V130" s="2" t="n">
+      <c r="V130" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W130" s="2" t="n">
+      <c r="W130" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X130" s="2" t="n">
+      <c r="X130" s="3" t="n">
         <v>44526</v>
       </c>
       <c r="Y130" t="inlineStr">
@@ -18266,16 +16532,11 @@
       <c r="AL130" t="n">
         <v>0</v>
       </c>
-      <c r="AM130" t="inlineStr"/>
       <c r="AN130" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO130" t="inlineStr"/>
-      <c r="AP130" t="inlineStr"/>
-      <c r="AQ130" t="inlineStr"/>
-      <c r="AR130" t="inlineStr"/>
       <c r="AS130" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -18347,25 +16608,22 @@
       <c r="O131" t="n">
         <v>1</v>
       </c>
-      <c r="P131" s="2" t="n">
+      <c r="P131" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" s="2" t="n">
+      <c r="T131" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U131" s="2" t="n">
+      <c r="U131" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V131" s="2" t="n">
+      <c r="V131" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W131" s="2" t="n">
+      <c r="W131" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X131" s="2" t="n">
+      <c r="X131" s="3" t="n">
         <v>44529</v>
       </c>
       <c r="Y131" t="inlineStr">
@@ -18414,16 +16672,11 @@
       <c r="AL131" t="n">
         <v>0</v>
       </c>
-      <c r="AM131" t="inlineStr"/>
       <c r="AN131" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO131" t="inlineStr"/>
-      <c r="AP131" t="inlineStr"/>
-      <c r="AQ131" t="inlineStr"/>
-      <c r="AR131" t="inlineStr"/>
       <c r="AS131" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -18495,27 +16748,25 @@
       <c r="O132" t="n">
         <v>1</v>
       </c>
-      <c r="P132" s="2" t="n">
+      <c r="P132" s="3" t="n">
         <v>44619</v>
       </c>
-      <c r="Q132" s="2" t="n">
+      <c r="Q132" s="3" t="n">
         <v>44645</v>
       </c>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" s="2" t="n">
+      <c r="T132" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U132" s="2" t="n">
+      <c r="U132" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V132" s="2" t="n">
+      <c r="V132" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W132" s="2" t="n">
+      <c r="W132" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X132" s="2" t="n">
+      <c r="X132" s="3" t="n">
         <v>44529</v>
       </c>
       <c r="Y132" t="inlineStr">
@@ -18523,7 +16774,6 @@
           <t>LCDC Const'n</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="n">
         <v>0</v>
       </c>
@@ -18560,16 +16810,11 @@
       <c r="AL132" t="n">
         <v>0</v>
       </c>
-      <c r="AM132" t="inlineStr"/>
       <c r="AN132" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO132" t="inlineStr"/>
-      <c r="AP132" t="inlineStr"/>
-      <c r="AQ132" t="inlineStr"/>
-      <c r="AR132" t="inlineStr"/>
       <c r="AS132" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -18641,31 +16886,30 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="P133" s="2" t="n">
+      <c r="P133" s="3" t="n">
         <v>44576</v>
       </c>
-      <c r="Q133" s="2" t="n">
+      <c r="Q133" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr">
         <is>
           <t>INF-2021 R-021</t>
         </is>
       </c>
-      <c r="T133" s="2" t="n">
+      <c r="T133" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="U133" s="2" t="n">
+      <c r="U133" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V133" s="2" t="n">
+      <c r="V133" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W133" s="2" t="n">
+      <c r="W133" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="X133" s="2" t="n">
+      <c r="X133" s="3" t="n">
         <v>44426</v>
       </c>
       <c r="Y133" t="inlineStr">
@@ -18673,7 +16917,6 @@
           <t>JMMAS Const'n &amp; Gen. Merchandise</t>
         </is>
       </c>
-      <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="n">
         <v>0</v>
       </c>
@@ -18710,16 +16953,11 @@
       <c r="AL133" t="n">
         <v>0</v>
       </c>
-      <c r="AM133" t="inlineStr"/>
       <c r="AN133" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO133" t="inlineStr"/>
-      <c r="AP133" t="inlineStr"/>
-      <c r="AQ133" t="inlineStr"/>
-      <c r="AR133" t="inlineStr"/>
       <c r="AS133" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -18766,7 +17004,6 @@
       <c r="H134" t="n">
         <v>1</v>
       </c>
-      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
           <t>Others</t>
@@ -18778,7 +17015,6 @@
       <c r="L134" t="n">
         <v>1</v>
       </c>
-      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
           <t>completed</t>
@@ -18787,17 +17023,6 @@
       <c r="O134" t="n">
         <v>1</v>
       </c>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="n">
         <v>0</v>
       </c>
@@ -18834,16 +17059,12 @@
       <c r="AL134" t="n">
         <v>0</v>
       </c>
-      <c r="AM134" s="2" t="n">
+      <c r="AM134" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN134" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO134" t="inlineStr"/>
-      <c r="AP134" t="inlineStr"/>
-      <c r="AQ134" t="inlineStr"/>
-      <c r="AR134" t="inlineStr"/>
       <c r="AS134" t="inlineStr">
         <is>
           <t>OTHERS</t>
@@ -18890,15 +17111,12 @@
       <c r="H135" t="n">
         <v>1</v>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
         <v>3314706.43298983</v>
       </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
-      <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18907,17 +17125,6 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
       <c r="AA135" t="n">
         <v>0</v>
       </c>
@@ -18954,16 +17161,12 @@
       <c r="AL135" t="n">
         <v>0</v>
       </c>
-      <c r="AM135" s="2" t="n">
+      <c r="AM135" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN135" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO135" t="inlineStr"/>
-      <c r="AP135" t="inlineStr"/>
-      <c r="AQ135" t="inlineStr"/>
-      <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr">
         <is>
           <t>repair</t>
@@ -19024,7 +17227,6 @@
       <c r="L136" t="n">
         <v>1</v>
       </c>
-      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
           <t>completed</t>
@@ -19033,10 +17235,10 @@
       <c r="O136" t="n">
         <v>1</v>
       </c>
-      <c r="P136" s="2" t="n">
+      <c r="P136" s="3" t="n">
         <v>45050</v>
       </c>
-      <c r="Q136" s="2" t="n">
+      <c r="Q136" s="3" t="n">
         <v>45095</v>
       </c>
       <c r="R136" t="inlineStr">
@@ -19044,20 +17246,19 @@
           <t>INF-2021 QNC-001</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" s="2" t="n">
+      <c r="T136" s="3" t="n">
         <v>44686</v>
       </c>
-      <c r="U136" s="2" t="n">
+      <c r="U136" s="3" t="n">
         <v>44694</v>
       </c>
-      <c r="V136" s="2" t="n">
+      <c r="V136" s="3" t="n">
         <v>44706</v>
       </c>
-      <c r="W136" s="2" t="n">
+      <c r="W136" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="X136" s="2" t="n">
+      <c r="X136" s="3" t="n">
         <v>44784</v>
       </c>
       <c r="Y136" t="inlineStr">
@@ -19106,16 +17307,12 @@
       <c r="AL136" t="n">
         <v>0</v>
       </c>
-      <c r="AM136" s="2" t="n">
+      <c r="AM136" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN136" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO136" t="inlineStr"/>
-      <c r="AP136" t="inlineStr"/>
-      <c r="AQ136" t="inlineStr"/>
-      <c r="AR136" t="inlineStr"/>
       <c r="AS136" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -19176,7 +17373,6 @@
       <c r="L137" t="n">
         <v>1</v>
       </c>
-      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19185,17 +17381,6 @@
       <c r="O137" t="n">
         <v>1</v>
       </c>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="n">
         <v>0</v>
       </c>
@@ -19232,16 +17417,12 @@
       <c r="AL137" t="n">
         <v>0</v>
       </c>
-      <c r="AM137" s="2" t="n">
+      <c r="AM137" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN137" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO137" t="inlineStr"/>
-      <c r="AP137" t="inlineStr"/>
-      <c r="AQ137" t="inlineStr"/>
-      <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -19302,7 +17483,6 @@
       <c r="L138" t="n">
         <v>1</v>
       </c>
-      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19311,17 +17491,6 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
       <c r="AA138" t="n">
         <v>0</v>
       </c>
@@ -19358,16 +17527,12 @@
       <c r="AL138" t="n">
         <v>0</v>
       </c>
-      <c r="AM138" s="2" t="n">
+      <c r="AM138" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN138" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO138" t="inlineStr"/>
-      <c r="AP138" t="inlineStr"/>
-      <c r="AQ138" t="inlineStr"/>
-      <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -19428,7 +17593,6 @@
       <c r="L139" t="n">
         <v>1</v>
       </c>
-      <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19437,17 +17601,6 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
       <c r="AA139" t="n">
         <v>0</v>
       </c>
@@ -19484,16 +17637,12 @@
       <c r="AL139" t="n">
         <v>0</v>
       </c>
-      <c r="AM139" s="2" t="n">
+      <c r="AM139" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN139" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO139" t="inlineStr"/>
-      <c r="AP139" t="inlineStr"/>
-      <c r="AQ139" t="inlineStr"/>
-      <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -19540,7 +17689,6 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
           <t>Others</t>
@@ -19552,7 +17700,6 @@
       <c r="L140" t="n">
         <v>1</v>
       </c>
-      <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19561,17 +17708,6 @@
       <c r="O140" t="n">
         <v>1</v>
       </c>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
       <c r="AA140" t="n">
         <v>0</v>
       </c>
@@ -19608,16 +17744,12 @@
       <c r="AL140" t="n">
         <v>0</v>
       </c>
-      <c r="AM140" s="2" t="n">
+      <c r="AM140" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN140" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO140" t="inlineStr"/>
-      <c r="AP140" t="inlineStr"/>
-      <c r="AQ140" t="inlineStr"/>
-      <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr">
         <is>
           <t>OTHERS</t>
@@ -19678,7 +17810,6 @@
       <c r="L141" t="n">
         <v>1</v>
       </c>
-      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19687,17 +17818,6 @@
       <c r="O141" t="n">
         <v>1</v>
       </c>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="n">
         <v>0</v>
       </c>
@@ -19734,16 +17854,12 @@
       <c r="AL141" t="n">
         <v>0</v>
       </c>
-      <c r="AM141" s="2" t="n">
+      <c r="AM141" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN141" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO141" t="inlineStr"/>
-      <c r="AP141" t="inlineStr"/>
-      <c r="AQ141" t="inlineStr"/>
-      <c r="AR141" t="inlineStr"/>
       <c r="AS141" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -19806,7 +17922,6 @@
       <c r="L142" t="n">
         <v>1</v>
       </c>
-      <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19815,25 +17930,17 @@
       <c r="O142" t="n">
         <v>1</v>
       </c>
-      <c r="P142" s="2" t="n">
+      <c r="P142" s="3" t="n">
         <v>45121</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" s="2" t="n">
+      <c r="T142" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="n">
         <v>0</v>
       </c>
@@ -19870,14 +17977,9 @@
       <c r="AL142" t="n">
         <v>0</v>
       </c>
-      <c r="AM142" t="inlineStr"/>
       <c r="AN142" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO142" t="inlineStr"/>
-      <c r="AP142" t="inlineStr"/>
-      <c r="AQ142" t="inlineStr"/>
-      <c r="AR142" t="inlineStr"/>
       <c r="AS142" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -19940,7 +18042,6 @@
       <c r="L143" t="n">
         <v>1</v>
       </c>
-      <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19949,25 +18050,17 @@
       <c r="O143" t="n">
         <v>1</v>
       </c>
-      <c r="P143" s="2" t="n">
+      <c r="P143" s="3" t="n">
         <v>45121</v>
       </c>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" s="2" t="n">
+      <c r="T143" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="n">
         <v>0</v>
       </c>
@@ -20004,14 +18097,9 @@
       <c r="AL143" t="n">
         <v>0</v>
       </c>
-      <c r="AM143" t="inlineStr"/>
       <c r="AN143" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO143" t="inlineStr"/>
-      <c r="AP143" t="inlineStr"/>
-      <c r="AQ143" t="inlineStr"/>
-      <c r="AR143" t="inlineStr"/>
       <c r="AS143" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -20074,7 +18162,6 @@
       <c r="L144" t="n">
         <v>1</v>
       </c>
-      <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
           <t>completed</t>
@@ -20083,25 +18170,17 @@
       <c r="O144" t="n">
         <v>1</v>
       </c>
-      <c r="P144" s="2" t="n">
+      <c r="P144" s="3" t="n">
         <v>45150</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" s="2" t="n">
+      <c r="T144" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="n">
         <v>0</v>
       </c>
@@ -20138,14 +18217,9 @@
       <c r="AL144" t="n">
         <v>0</v>
       </c>
-      <c r="AM144" t="inlineStr"/>
       <c r="AN144" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO144" t="inlineStr"/>
-      <c r="AP144" t="inlineStr"/>
-      <c r="AQ144" t="inlineStr"/>
-      <c r="AR144" t="inlineStr"/>
       <c r="AS144" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -20208,7 +18282,6 @@
       <c r="L145" t="n">
         <v>1</v>
       </c>
-      <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20217,25 +18290,17 @@
       <c r="O145" t="n">
         <v>1</v>
       </c>
-      <c r="P145" s="2" t="n">
+      <c r="P145" s="3" t="n">
         <v>45240</v>
       </c>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" s="2" t="n">
+      <c r="T145" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr"/>
       <c r="AA145" t="n">
         <v>0</v>
       </c>
@@ -20272,14 +18337,9 @@
       <c r="AL145" t="n">
         <v>0</v>
       </c>
-      <c r="AM145" t="inlineStr"/>
       <c r="AN145" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO145" t="inlineStr"/>
-      <c r="AP145" t="inlineStr"/>
-      <c r="AQ145" t="inlineStr"/>
-      <c r="AR145" t="inlineStr"/>
       <c r="AS145" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -20342,7 +18402,6 @@
       <c r="L146" t="n">
         <v>1</v>
       </c>
-      <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20351,25 +18410,17 @@
       <c r="O146" t="n">
         <v>1</v>
       </c>
-      <c r="P146" s="2" t="n">
+      <c r="P146" s="3" t="n">
         <v>45240</v>
       </c>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" s="2" t="n">
+      <c r="T146" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
           <t>AD MARRERO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr"/>
       <c r="AA146" t="n">
         <v>0</v>
       </c>
@@ -20406,14 +18457,9 @@
       <c r="AL146" t="n">
         <v>0</v>
       </c>
-      <c r="AM146" t="inlineStr"/>
       <c r="AN146" t="n">
         <v>4.25</v>
       </c>
-      <c r="AO146" t="inlineStr"/>
-      <c r="AP146" t="inlineStr"/>
-      <c r="AQ146" t="inlineStr"/>
-      <c r="AR146" t="inlineStr"/>
       <c r="AS146" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -20476,7 +18522,6 @@
       <c r="L147" t="n">
         <v>1</v>
       </c>
-      <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20485,25 +18530,17 @@
       <c r="O147" t="n">
         <v>1</v>
       </c>
-      <c r="P147" s="2" t="n">
+      <c r="P147" s="3" t="n">
         <v>45150</v>
       </c>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" s="2" t="n">
+      <c r="T147" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="n">
         <v>0</v>
       </c>
@@ -20540,14 +18577,9 @@
       <c r="AL147" t="n">
         <v>0</v>
       </c>
-      <c r="AM147" t="inlineStr"/>
       <c r="AN147" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO147" t="inlineStr"/>
-      <c r="AP147" t="inlineStr"/>
-      <c r="AQ147" t="inlineStr"/>
-      <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -20623,10 +18655,10 @@
       <c r="O148" t="n">
         <v>1</v>
       </c>
-      <c r="P148" s="2" t="n">
+      <c r="P148" s="3" t="n">
         <v>45237</v>
       </c>
-      <c r="Q148" s="2" t="n">
+      <c r="Q148" s="3" t="n">
         <v>45253</v>
       </c>
       <c r="R148" t="inlineStr">
@@ -20634,8 +18666,7 @@
           <t>QRF-2022-001</t>
         </is>
       </c>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" s="2" t="n">
+      <c r="T148" s="3" t="n">
         <v>45061</v>
       </c>
       <c r="U148" t="inlineStr">
@@ -20643,13 +18674,13 @@
           <t>JUNE 20, 2019</t>
         </is>
       </c>
-      <c r="V148" s="2" t="n">
+      <c r="V148" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="W148" s="2" t="n">
+      <c r="W148" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="X148" s="2" t="n">
+      <c r="X148" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="Y148" t="inlineStr">
@@ -20657,7 +18688,6 @@
           <t>Aquila Construction Co.</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr"/>
       <c r="AA148" t="n">
         <v>0</v>
       </c>
@@ -20694,14 +18724,9 @@
       <c r="AL148" t="n">
         <v>0</v>
       </c>
-      <c r="AM148" t="inlineStr"/>
       <c r="AN148" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO148" t="inlineStr"/>
-      <c r="AP148" t="inlineStr"/>
-      <c r="AQ148" t="inlineStr"/>
-      <c r="AR148" t="inlineStr"/>
       <c r="AS148" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -20775,17 +18800,10 @@
       <c r="O149" t="n">
         <v>1</v>
       </c>
-      <c r="P149" s="2" t="n">
+      <c r="P149" s="3" t="n">
         <v>45235</v>
       </c>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" s="2" t="n">
+      <c r="X149" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="Y149" t="inlineStr">
@@ -20793,7 +18811,6 @@
           <t>EZRAH Construction Services</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="n">
         <v>0</v>
       </c>
@@ -20830,14 +18847,9 @@
       <c r="AL149" t="n">
         <v>0</v>
       </c>
-      <c r="AM149" t="inlineStr"/>
       <c r="AN149" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO149" t="inlineStr"/>
-      <c r="AP149" t="inlineStr"/>
-      <c r="AQ149" t="inlineStr"/>
-      <c r="AR149" t="inlineStr"/>
       <c r="AS149" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -20911,17 +18923,10 @@
       <c r="O150" t="n">
         <v>1</v>
       </c>
-      <c r="P150" s="2" t="n">
+      <c r="P150" s="3" t="n">
         <v>45295</v>
       </c>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" s="2" t="n">
+      <c r="X150" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="Y150" t="inlineStr">
@@ -20929,7 +18934,6 @@
           <t>JEKISU Construction</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr"/>
       <c r="AA150" t="n">
         <v>0</v>
       </c>
@@ -20966,14 +18970,9 @@
       <c r="AL150" t="n">
         <v>0</v>
       </c>
-      <c r="AM150" t="inlineStr"/>
       <c r="AN150" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO150" t="inlineStr"/>
-      <c r="AP150" t="inlineStr"/>
-      <c r="AQ150" t="inlineStr"/>
-      <c r="AR150" t="inlineStr"/>
       <c r="AS150" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -21047,17 +19046,10 @@
       <c r="O151" t="n">
         <v>1</v>
       </c>
-      <c r="P151" s="2" t="n">
+      <c r="P151" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" s="2" t="n">
+      <c r="X151" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="Y151" t="inlineStr">
@@ -21065,7 +19057,6 @@
           <t>EZRAH Construction Services</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="n">
         <v>0</v>
       </c>
@@ -21102,11 +19093,9 @@
       <c r="AL151" t="n">
         <v>0</v>
       </c>
-      <c r="AM151" t="inlineStr"/>
       <c r="AN151" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="n">
         <v>1</v>
       </c>
@@ -21189,10 +19178,10 @@
       <c r="O152" t="n">
         <v>1</v>
       </c>
-      <c r="P152" s="2" t="n">
+      <c r="P152" s="3" t="n">
         <v>45335</v>
       </c>
-      <c r="Q152" s="2" t="n">
+      <c r="Q152" s="3" t="n">
         <v>45335</v>
       </c>
       <c r="R152" t="inlineStr">
@@ -21200,18 +19189,16 @@
           <t>QRF-2022-01</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" s="2" t="n">
+      <c r="T152" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" s="2" t="n">
+      <c r="V152" s="3" t="n">
         <v>45027</v>
       </c>
-      <c r="W152" s="2" t="n">
+      <c r="W152" s="3" t="n">
         <v>45090</v>
       </c>
-      <c r="X152" s="2" t="n">
+      <c r="X152" s="3" t="n">
         <v>45125</v>
       </c>
       <c r="Y152" t="inlineStr">
@@ -21219,7 +19206,6 @@
           <t>MBW Construction</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="n">
         <v>0</v>
       </c>
@@ -21256,14 +19242,9 @@
       <c r="AL152" t="n">
         <v>0</v>
       </c>
-      <c r="AM152" t="inlineStr"/>
       <c r="AN152" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO152" t="inlineStr"/>
-      <c r="AP152" t="inlineStr"/>
-      <c r="AQ152" t="inlineStr"/>
-      <c r="AR152" t="inlineStr"/>
       <c r="AS152" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -21337,10 +19318,10 @@
       <c r="O153" t="n">
         <v>1</v>
       </c>
-      <c r="P153" s="2" t="n">
+      <c r="P153" s="3" t="n">
         <v>45268</v>
       </c>
-      <c r="Q153" s="2" t="n">
+      <c r="Q153" s="3" t="n">
         <v>45326</v>
       </c>
       <c r="R153" t="inlineStr">
@@ -21348,18 +19329,16 @@
           <t>QRF-2022-02</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr"/>
-      <c r="T153" s="2" t="n">
+      <c r="T153" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" s="2" t="n">
+      <c r="V153" s="3" t="n">
         <v>45027</v>
       </c>
-      <c r="W153" s="2" t="n">
+      <c r="W153" s="3" t="n">
         <v>45085</v>
       </c>
-      <c r="X153" s="2" t="n">
+      <c r="X153" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="Y153" t="inlineStr">
@@ -21367,7 +19346,6 @@
           <t>JB BANGIT</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr"/>
       <c r="AA153" t="n">
         <v>0</v>
       </c>
@@ -21404,14 +19382,9 @@
       <c r="AL153" t="n">
         <v>0</v>
       </c>
-      <c r="AM153" t="inlineStr"/>
       <c r="AN153" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO153" t="inlineStr"/>
-      <c r="AP153" t="inlineStr"/>
-      <c r="AQ153" t="inlineStr"/>
-      <c r="AR153" t="inlineStr"/>
       <c r="AS153" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -21485,10 +19458,10 @@
       <c r="O154" t="n">
         <v>1</v>
       </c>
-      <c r="P154" s="2" t="n">
+      <c r="P154" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="Q154" s="2" t="n">
+      <c r="Q154" s="3" t="n">
         <v>45310</v>
       </c>
       <c r="R154" t="inlineStr">
@@ -21496,18 +19469,16 @@
           <t>QRF-2022-03</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" s="2" t="n">
+      <c r="T154" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" s="2" t="n">
+      <c r="V154" s="3" t="n">
         <v>45027</v>
       </c>
-      <c r="W154" s="2" t="n">
+      <c r="W154" s="3" t="n">
         <v>45085</v>
       </c>
-      <c r="X154" s="2" t="n">
+      <c r="X154" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="Y154" t="inlineStr">
@@ -21515,7 +19486,6 @@
           <t>PRECIOUS GOLD CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="n">
         <v>0</v>
       </c>
@@ -21552,14 +19522,9 @@
       <c r="AL154" t="n">
         <v>0</v>
       </c>
-      <c r="AM154" t="inlineStr"/>
       <c r="AN154" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO154" t="inlineStr"/>
-      <c r="AP154" t="inlineStr"/>
-      <c r="AQ154" t="inlineStr"/>
-      <c r="AR154" t="inlineStr"/>
       <c r="AS154" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -21633,10 +19598,10 @@
       <c r="O155" t="n">
         <v>1</v>
       </c>
-      <c r="P155" s="2" t="n">
+      <c r="P155" s="3" t="n">
         <v>45357</v>
       </c>
-      <c r="Q155" s="2" t="n">
+      <c r="Q155" s="3" t="n">
         <v>45428</v>
       </c>
       <c r="R155" t="inlineStr">
@@ -21644,18 +19609,16 @@
           <t>QRF-2022-04</t>
         </is>
       </c>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" s="2" t="n">
+      <c r="T155" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" s="2" t="n">
+      <c r="V155" s="3" t="n">
         <v>45027</v>
       </c>
-      <c r="W155" s="2" t="n">
+      <c r="W155" s="3" t="n">
         <v>45085</v>
       </c>
-      <c r="X155" s="2" t="n">
+      <c r="X155" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="Y155" t="inlineStr">
@@ -21663,7 +19626,6 @@
           <t>HAIGHT'S CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="n">
         <v>0</v>
       </c>
@@ -21700,14 +19662,9 @@
       <c r="AL155" t="n">
         <v>0</v>
       </c>
-      <c r="AM155" t="inlineStr"/>
       <c r="AN155" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO155" t="inlineStr"/>
-      <c r="AP155" t="inlineStr"/>
-      <c r="AQ155" t="inlineStr"/>
-      <c r="AR155" t="inlineStr"/>
       <c r="AS155" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -21781,27 +19738,24 @@
       <c r="O156" t="n">
         <v>1</v>
       </c>
-      <c r="P156" s="2" t="n">
+      <c r="P156" s="3" t="n">
         <v>45357</v>
       </c>
-      <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr">
         <is>
           <t>QRF-2022-08</t>
         </is>
       </c>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" s="2" t="n">
+      <c r="T156" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" s="2" t="n">
+      <c r="V156" s="3" t="n">
         <v>45027</v>
       </c>
-      <c r="W156" s="2" t="n">
+      <c r="W156" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="X156" s="2" t="n">
+      <c r="X156" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="Y156" t="inlineStr">
@@ -21809,7 +19763,6 @@
           <t>ZYMX CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
         <v>0</v>
       </c>
@@ -21846,14 +19799,9 @@
       <c r="AL156" t="n">
         <v>0</v>
       </c>
-      <c r="AM156" t="inlineStr"/>
       <c r="AN156" t="n">
         <v>11.24</v>
       </c>
-      <c r="AO156" t="inlineStr"/>
-      <c r="AP156" t="inlineStr"/>
-      <c r="AQ156" t="inlineStr"/>
-      <c r="AR156" t="inlineStr"/>
       <c r="AS156" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -21927,10 +19875,10 @@
       <c r="O157" t="n">
         <v>1</v>
       </c>
-      <c r="P157" s="2" t="n">
+      <c r="P157" s="3" t="n">
         <v>45300</v>
       </c>
-      <c r="Q157" s="2" t="n">
+      <c r="Q157" s="3" t="n">
         <v>45427</v>
       </c>
       <c r="R157" t="inlineStr">
@@ -21938,18 +19886,16 @@
           <t>QRF-2022-06</t>
         </is>
       </c>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" s="2" t="n">
+      <c r="T157" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" s="2" t="n">
+      <c r="V157" s="3" t="n">
         <v>45027</v>
       </c>
-      <c r="W157" s="2" t="n">
+      <c r="W157" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="X157" s="2" t="n">
+      <c r="X157" s="3" t="n">
         <v>45120</v>
       </c>
       <c r="Y157" t="inlineStr">
@@ -21957,7 +19903,6 @@
           <t>GEGA ENGINEERING</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="n">
         <v>0</v>
       </c>
@@ -21994,14 +19939,9 @@
       <c r="AL157" t="n">
         <v>0</v>
       </c>
-      <c r="AM157" t="inlineStr"/>
       <c r="AN157" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO157" t="inlineStr"/>
-      <c r="AP157" t="inlineStr"/>
-      <c r="AQ157" t="inlineStr"/>
-      <c r="AR157" t="inlineStr"/>
       <c r="AS157" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -22075,27 +20015,24 @@
       <c r="O158" t="n">
         <v>1</v>
       </c>
-      <c r="P158" s="2" t="n">
+      <c r="P158" s="3" t="n">
         <v>45405</v>
       </c>
-      <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr">
         <is>
           <t>QRF-2022-05</t>
         </is>
       </c>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" s="2" t="n">
+      <c r="T158" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" s="2" t="n">
+      <c r="V158" s="3" t="n">
         <v>45027</v>
       </c>
-      <c r="W158" s="2" t="n">
+      <c r="W158" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="X158" s="2" t="n">
+      <c r="X158" s="3" t="n">
         <v>45125</v>
       </c>
       <c r="Y158" t="inlineStr">
@@ -22103,7 +20040,6 @@
           <t>CAIXIA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr"/>
       <c r="AA158" t="n">
         <v>0</v>
       </c>
@@ -22140,14 +20076,9 @@
       <c r="AL158" t="n">
         <v>0</v>
       </c>
-      <c r="AM158" t="inlineStr"/>
       <c r="AN158" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO158" t="inlineStr"/>
-      <c r="AP158" t="inlineStr"/>
-      <c r="AQ158" t="inlineStr"/>
-      <c r="AR158" t="inlineStr"/>
       <c r="AS158" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -22221,10 +20152,10 @@
       <c r="O159" t="n">
         <v>1</v>
       </c>
-      <c r="P159" s="2" t="n">
+      <c r="P159" s="3" t="n">
         <v>45357</v>
       </c>
-      <c r="Q159" s="2" t="n">
+      <c r="Q159" s="3" t="n">
         <v>45442</v>
       </c>
       <c r="R159" t="inlineStr">
@@ -22232,18 +20163,16 @@
           <t>QRF-2022-07</t>
         </is>
       </c>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" s="2" t="n">
+      <c r="T159" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" s="2" t="n">
+      <c r="V159" s="3" t="n">
         <v>45027</v>
       </c>
-      <c r="W159" s="2" t="n">
+      <c r="W159" s="3" t="n">
         <v>45085</v>
       </c>
-      <c r="X159" s="2" t="n">
+      <c r="X159" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="Y159" t="inlineStr">
@@ -22251,7 +20180,6 @@
           <t>HAIGHT'S CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z159" t="inlineStr"/>
       <c r="AA159" t="n">
         <v>0</v>
       </c>
@@ -22288,14 +20216,9 @@
       <c r="AL159" t="n">
         <v>0</v>
       </c>
-      <c r="AM159" t="inlineStr"/>
       <c r="AN159" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO159" t="inlineStr"/>
-      <c r="AP159" t="inlineStr"/>
-      <c r="AQ159" t="inlineStr"/>
-      <c r="AR159" t="inlineStr"/>
       <c r="AS159" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -22358,7 +20281,6 @@
       <c r="L160" t="n">
         <v>1</v>
       </c>
-      <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22367,17 +20289,6 @@
       <c r="O160" t="n">
         <v>1</v>
       </c>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
       <c r="AA160" t="n">
         <v>0</v>
       </c>
@@ -22414,14 +20325,9 @@
       <c r="AL160" t="n">
         <v>0</v>
       </c>
-      <c r="AM160" t="inlineStr"/>
       <c r="AN160" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO160" t="inlineStr"/>
-      <c r="AP160" t="inlineStr"/>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr"/>
       <c r="AS160" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -22497,10 +20403,9 @@
       <c r="O161" t="n">
         <v>1</v>
       </c>
-      <c r="P161" s="2" t="n">
+      <c r="P161" s="3" t="n">
         <v>45327</v>
       </c>
-      <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr">
         <is>
           <t>Lot 7 QRF 2022</t>
@@ -22511,19 +20416,19 @@
           <t>INF-2023 R-006</t>
         </is>
       </c>
-      <c r="T161" s="2" t="n">
+      <c r="T161" s="3" t="n">
         <v>44982</v>
       </c>
-      <c r="U161" s="2" t="n">
+      <c r="U161" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="V161" s="2" t="n">
+      <c r="V161" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="W161" s="2" t="n">
+      <c r="W161" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="X161" s="2" t="n">
+      <c r="X161" s="3" t="n">
         <v>45050</v>
       </c>
       <c r="Y161" t="inlineStr">
@@ -22531,7 +20436,6 @@
           <t>HGW=3 Eng'g &amp; Const'n</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr"/>
       <c r="AA161" t="n">
         <v>0</v>
       </c>
@@ -22568,11 +20472,9 @@
       <c r="AL161" t="n">
         <v>0</v>
       </c>
-      <c r="AM161" t="inlineStr"/>
       <c r="AN161" t="n">
         <v>3.25</v>
       </c>
-      <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="n">
         <v>1</v>
       </c>
@@ -22657,10 +20559,9 @@
       <c r="O162" t="n">
         <v>1</v>
       </c>
-      <c r="P162" s="2" t="n">
+      <c r="P162" s="3" t="n">
         <v>45118</v>
       </c>
-      <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr">
         <is>
           <t>Lot 2 QRF 2022</t>
@@ -22671,19 +20572,19 @@
           <t>INF-2023 R-001</t>
         </is>
       </c>
-      <c r="T162" s="2" t="n">
+      <c r="T162" s="3" t="n">
         <v>44982</v>
       </c>
-      <c r="U162" s="2" t="n">
+      <c r="U162" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="V162" s="2" t="n">
+      <c r="V162" s="3" t="n">
         <v>45005</v>
       </c>
-      <c r="W162" s="2" t="n">
+      <c r="W162" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="X162" s="2" t="n">
+      <c r="X162" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="Y162" t="inlineStr">
@@ -22691,7 +20592,6 @@
           <t>Archie Prince Construction</t>
         </is>
       </c>
-      <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="n">
         <v>0</v>
       </c>
@@ -22728,14 +20628,9 @@
       <c r="AL162" t="n">
         <v>0</v>
       </c>
-      <c r="AM162" t="inlineStr"/>
       <c r="AN162" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO162" t="inlineStr"/>
-      <c r="AP162" t="inlineStr"/>
-      <c r="AQ162" t="inlineStr"/>
-      <c r="AR162" t="inlineStr"/>
       <c r="AS162" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -22811,10 +20706,9 @@
       <c r="O163" t="n">
         <v>1</v>
       </c>
-      <c r="P163" s="2" t="n">
+      <c r="P163" s="3" t="n">
         <v>45238</v>
       </c>
-      <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr">
         <is>
           <t>Lot 4 QRF 2022</t>
@@ -22825,19 +20719,19 @@
           <t>INF-2023 R-003</t>
         </is>
       </c>
-      <c r="T163" s="2" t="n">
+      <c r="T163" s="3" t="n">
         <v>44982</v>
       </c>
-      <c r="U163" s="2" t="n">
+      <c r="U163" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="V163" s="2" t="n">
+      <c r="V163" s="3" t="n">
         <v>45005</v>
       </c>
-      <c r="W163" s="2" t="n">
+      <c r="W163" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="X163" s="2" t="n">
+      <c r="X163" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="Y163" t="inlineStr">
@@ -22845,7 +20739,6 @@
           <t>WWW.Const'n</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr"/>
       <c r="AA163" t="n">
         <v>0</v>
       </c>
@@ -22882,14 +20775,9 @@
       <c r="AL163" t="n">
         <v>0</v>
       </c>
-      <c r="AM163" t="inlineStr"/>
       <c r="AN163" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO163" t="inlineStr"/>
-      <c r="AP163" t="inlineStr"/>
-      <c r="AQ163" t="inlineStr"/>
-      <c r="AR163" t="inlineStr"/>
       <c r="AS163" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -22965,10 +20853,9 @@
       <c r="O164" t="n">
         <v>1</v>
       </c>
-      <c r="P164" s="2" t="n">
+      <c r="P164" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr">
         <is>
           <t>Lot 6 QRF 2022</t>
@@ -22979,19 +20866,19 @@
           <t>INF-2023 R-005</t>
         </is>
       </c>
-      <c r="T164" s="2" t="n">
+      <c r="T164" s="3" t="n">
         <v>44982</v>
       </c>
-      <c r="U164" s="2" t="n">
+      <c r="U164" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="V164" s="2" t="n">
+      <c r="V164" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="W164" s="2" t="n">
+      <c r="W164" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="X164" s="2" t="n">
+      <c r="X164" s="3" t="n">
         <v>45049</v>
       </c>
       <c r="Y164" t="inlineStr">
@@ -22999,7 +20886,6 @@
           <t>MBW Construction</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr"/>
       <c r="AA164" t="n">
         <v>0</v>
       </c>
@@ -23036,14 +20922,9 @@
       <c r="AL164" t="n">
         <v>0</v>
       </c>
-      <c r="AM164" t="inlineStr"/>
       <c r="AN164" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO164" t="inlineStr"/>
-      <c r="AP164" t="inlineStr"/>
-      <c r="AQ164" t="inlineStr"/>
-      <c r="AR164" t="inlineStr"/>
       <c r="AS164" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -23106,7 +20987,6 @@
       <c r="L165" t="n">
         <v>1</v>
       </c>
-      <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23115,10 +20995,9 @@
       <c r="O165" t="n">
         <v>1</v>
       </c>
-      <c r="P165" s="2" t="n">
+      <c r="P165" s="3" t="n">
         <v>45591</v>
       </c>
-      <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr">
         <is>
           <t>Lot 1 QRF 2022</t>
@@ -23129,7 +21008,7 @@
           <t>INF-2023-R-008</t>
         </is>
       </c>
-      <c r="T165" s="2" t="n">
+      <c r="T165" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="U165" t="inlineStr">
@@ -23147,7 +21026,7 @@
           <t>September 11, 2023</t>
         </is>
       </c>
-      <c r="X165" s="2" t="n">
+      <c r="X165" s="3" t="n">
         <v>45194</v>
       </c>
       <c r="Y165" t="inlineStr">
@@ -23196,14 +21075,9 @@
       <c r="AL165" t="n">
         <v>0</v>
       </c>
-      <c r="AM165" t="inlineStr"/>
       <c r="AN165" t="n">
         <v>3.25</v>
       </c>
-      <c r="AO165" t="inlineStr"/>
-      <c r="AP165" t="inlineStr"/>
-      <c r="AQ165" t="inlineStr"/>
-      <c r="AR165" t="inlineStr"/>
       <c r="AS165" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -23279,10 +21153,9 @@
       <c r="O166" t="n">
         <v>1</v>
       </c>
-      <c r="P166" s="2" t="n">
+      <c r="P166" s="3" t="n">
         <v>45208</v>
       </c>
-      <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr">
         <is>
           <t>Lot 5 QRF 2022</t>
@@ -23293,19 +21166,19 @@
           <t>INF-2023 R-004</t>
         </is>
       </c>
-      <c r="T166" s="2" t="n">
+      <c r="T166" s="3" t="n">
         <v>44982</v>
       </c>
-      <c r="U166" s="2" t="n">
+      <c r="U166" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="V166" s="2" t="n">
+      <c r="V166" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="W166" s="2" t="n">
+      <c r="W166" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="X166" s="2" t="n">
+      <c r="X166" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="Y166" t="inlineStr">
@@ -23313,7 +21186,6 @@
           <t>FELA Builders</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr"/>
       <c r="AA166" t="n">
         <v>0</v>
       </c>
@@ -23350,14 +21222,9 @@
       <c r="AL166" t="n">
         <v>0</v>
       </c>
-      <c r="AM166" t="inlineStr"/>
       <c r="AN166" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO166" t="inlineStr"/>
-      <c r="AP166" t="inlineStr"/>
-      <c r="AQ166" t="inlineStr"/>
-      <c r="AR166" t="inlineStr"/>
       <c r="AS166" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -23433,10 +21300,9 @@
       <c r="O167" t="n">
         <v>1</v>
       </c>
-      <c r="P167" s="2" t="n">
+      <c r="P167" s="3" t="n">
         <v>45178</v>
       </c>
-      <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr">
         <is>
           <t>Lot 3 QRF 2022</t>
@@ -23447,19 +21313,19 @@
           <t>INF-2023 R-002</t>
         </is>
       </c>
-      <c r="T167" s="2" t="n">
+      <c r="T167" s="3" t="n">
         <v>44982</v>
       </c>
-      <c r="U167" s="2" t="n">
+      <c r="U167" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="V167" s="2" t="n">
+      <c r="V167" s="3" t="n">
         <v>45005</v>
       </c>
-      <c r="W167" s="2" t="n">
+      <c r="W167" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="X167" s="2" t="n">
+      <c r="X167" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="Y167" t="inlineStr">
@@ -23467,7 +21333,6 @@
           <t>JM-MAS Const'n &amp; Gen. Merchandise</t>
         </is>
       </c>
-      <c r="Z167" t="inlineStr"/>
       <c r="AA167" t="n">
         <v>0</v>
       </c>
@@ -23504,14 +21369,9 @@
       <c r="AL167" t="n">
         <v>0</v>
       </c>
-      <c r="AM167" t="inlineStr"/>
       <c r="AN167" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO167" t="inlineStr"/>
-      <c r="AP167" t="inlineStr"/>
-      <c r="AQ167" t="inlineStr"/>
-      <c r="AR167" t="inlineStr"/>
       <c r="AS167" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -23576,7 +21436,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
           <t>completed</t>
@@ -23585,17 +21444,6 @@
       <c r="O168" t="n">
         <v>1</v>
       </c>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr"/>
-      <c r="Z168" t="inlineStr"/>
       <c r="AA168" t="n">
         <v>0</v>
       </c>
@@ -23632,14 +21480,9 @@
       <c r="AL168" t="n">
         <v>0</v>
       </c>
-      <c r="AM168" t="inlineStr"/>
       <c r="AN168" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO168" t="inlineStr"/>
-      <c r="AP168" t="inlineStr"/>
-      <c r="AQ168" t="inlineStr"/>
-      <c r="AR168" t="inlineStr"/>
       <c r="AS168" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -23704,7 +21547,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
           <t>completed</t>
@@ -23713,17 +21555,6 @@
       <c r="O169" t="n">
         <v>1</v>
       </c>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr"/>
-      <c r="Z169" t="inlineStr"/>
       <c r="AA169" t="n">
         <v>0</v>
       </c>
@@ -23760,14 +21591,9 @@
       <c r="AL169" t="n">
         <v>0</v>
       </c>
-      <c r="AM169" t="inlineStr"/>
       <c r="AN169" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO169" t="inlineStr"/>
-      <c r="AP169" t="inlineStr"/>
-      <c r="AQ169" t="inlineStr"/>
-      <c r="AR169" t="inlineStr"/>
       <c r="AS169" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -23832,7 +21658,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
           <t>completed</t>
@@ -23841,17 +21666,6 @@
       <c r="O170" t="n">
         <v>1</v>
       </c>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
-      <c r="Z170" t="inlineStr"/>
       <c r="AA170" t="n">
         <v>0</v>
       </c>
@@ -23888,14 +21702,9 @@
       <c r="AL170" t="n">
         <v>0</v>
       </c>
-      <c r="AM170" t="inlineStr"/>
       <c r="AN170" t="n">
         <v>11.24</v>
       </c>
-      <c r="AO170" t="inlineStr"/>
-      <c r="AP170" t="inlineStr"/>
-      <c r="AQ170" t="inlineStr"/>
-      <c r="AR170" t="inlineStr"/>
       <c r="AS170" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -23944,7 +21753,6 @@
       <c r="H171" t="n">
         <v>1</v>
       </c>
-      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -23958,7 +21766,6 @@
           <t>2-S</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
           <t>completed</t>
@@ -23967,16 +21774,6 @@
       <c r="O171" t="n">
         <v>1</v>
       </c>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
           <t>contracts awarded</t>
@@ -24018,14 +21815,9 @@
       <c r="AL171" t="n">
         <v>0</v>
       </c>
-      <c r="AM171" t="inlineStr"/>
       <c r="AN171" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO171" t="inlineStr"/>
-      <c r="AP171" t="inlineStr"/>
-      <c r="AQ171" t="inlineStr"/>
-      <c r="AR171" t="inlineStr"/>
       <c r="AS171" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -24074,7 +21866,6 @@
       <c r="H172" t="n">
         <v>1</v>
       </c>
-      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -24088,7 +21879,6 @@
           <t>2-S</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
           <t>completed</t>
@@ -24097,16 +21887,6 @@
       <c r="O172" t="n">
         <v>1</v>
       </c>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr"/>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
-      <c r="W172" t="inlineStr"/>
-      <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr"/>
       <c r="Z172" t="inlineStr">
         <is>
           <t>contracts awarded</t>
@@ -24148,14 +21928,9 @@
       <c r="AL172" t="n">
         <v>0</v>
       </c>
-      <c r="AM172" t="inlineStr"/>
       <c r="AN172" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO172" t="inlineStr"/>
-      <c r="AP172" t="inlineStr"/>
-      <c r="AQ172" t="inlineStr"/>
-      <c r="AR172" t="inlineStr"/>
       <c r="AS172" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -24220,7 +21995,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
           <t>completed</t>
@@ -24229,16 +22003,6 @@
       <c r="O173" t="n">
         <v>1</v>
       </c>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr"/>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="inlineStr">
         <is>
           <t>contracts awarded</t>
@@ -24280,14 +22044,9 @@
       <c r="AL173" t="n">
         <v>0</v>
       </c>
-      <c r="AM173" t="inlineStr"/>
       <c r="AN173" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO173" t="inlineStr"/>
-      <c r="AP173" t="inlineStr"/>
-      <c r="AQ173" t="inlineStr"/>
-      <c r="AR173" t="inlineStr"/>
       <c r="AS173" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -24336,7 +22095,6 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -24350,7 +22108,6 @@
           <t>2-S</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
           <t>completed</t>
@@ -24359,16 +22116,6 @@
       <c r="O174" t="n">
         <v>1</v>
       </c>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr"/>
       <c r="Z174" t="inlineStr">
         <is>
           <t>contracts awarded</t>
@@ -24410,14 +22157,9 @@
       <c r="AL174" t="n">
         <v>0</v>
       </c>
-      <c r="AM174" t="inlineStr"/>
       <c r="AN174" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO174" t="inlineStr"/>
-      <c r="AP174" t="inlineStr"/>
-      <c r="AQ174" t="inlineStr"/>
-      <c r="AR174" t="inlineStr"/>
       <c r="AS174" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -24482,7 +22224,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -24491,17 +22232,6 @@
       <c r="O175" t="n">
         <v>0.8</v>
       </c>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr"/>
-      <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr"/>
-      <c r="Z175" t="inlineStr"/>
       <c r="AA175" t="n">
         <v>0</v>
       </c>
@@ -24538,16 +22268,11 @@
       <c r="AL175" t="n">
         <v>0</v>
       </c>
-      <c r="AM175" t="inlineStr"/>
-      <c r="AN175" t="inlineStr"/>
       <c r="AO175" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP175" t="inlineStr"/>
-      <c r="AQ175" t="inlineStr"/>
-      <c r="AR175" t="inlineStr"/>
       <c r="AS175" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -24612,7 +22337,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -24621,17 +22345,6 @@
       <c r="O176" t="n">
         <v>0.8</v>
       </c>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr"/>
-      <c r="W176" t="inlineStr"/>
-      <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr"/>
-      <c r="Z176" t="inlineStr"/>
       <c r="AA176" t="n">
         <v>0</v>
       </c>
@@ -24668,16 +22381,11 @@
       <c r="AL176" t="n">
         <v>0</v>
       </c>
-      <c r="AM176" t="inlineStr"/>
-      <c r="AN176" t="inlineStr"/>
       <c r="AO176" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP176" t="inlineStr"/>
-      <c r="AQ176" t="inlineStr"/>
-      <c r="AR176" t="inlineStr"/>
       <c r="AS176" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -24742,7 +22450,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -24751,17 +22458,6 @@
       <c r="O177" t="n">
         <v>0.8</v>
       </c>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="inlineStr"/>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="inlineStr"/>
-      <c r="V177" t="inlineStr"/>
-      <c r="W177" t="inlineStr"/>
-      <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr"/>
-      <c r="Z177" t="inlineStr"/>
       <c r="AA177" t="n">
         <v>0</v>
       </c>
@@ -24798,16 +22494,11 @@
       <c r="AL177" t="n">
         <v>0</v>
       </c>
-      <c r="AM177" t="inlineStr"/>
-      <c r="AN177" t="inlineStr"/>
       <c r="AO177" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP177" t="inlineStr"/>
-      <c r="AQ177" t="inlineStr"/>
-      <c r="AR177" t="inlineStr"/>
       <c r="AS177" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -24872,7 +22563,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -24881,17 +22571,6 @@
       <c r="O178" t="n">
         <v>1</v>
       </c>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr"/>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr"/>
-      <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr"/>
-      <c r="Z178" t="inlineStr"/>
       <c r="AA178" t="n">
         <v>0</v>
       </c>
@@ -24928,7 +22607,6 @@
       <c r="AL178" t="n">
         <v>0</v>
       </c>
-      <c r="AM178" t="inlineStr"/>
       <c r="AN178" t="n">
         <v>4.25</v>
       </c>
@@ -24937,9 +22615,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP178" t="inlineStr"/>
-      <c r="AQ178" t="inlineStr"/>
-      <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -25004,7 +22679,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25013,17 +22687,6 @@
       <c r="O179" t="n">
         <v>0.8</v>
       </c>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
-      <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr"/>
-      <c r="Z179" t="inlineStr"/>
       <c r="AA179" t="n">
         <v>0</v>
       </c>
@@ -25060,16 +22723,11 @@
       <c r="AL179" t="n">
         <v>0</v>
       </c>
-      <c r="AM179" t="inlineStr"/>
-      <c r="AN179" t="inlineStr"/>
       <c r="AO179" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP179" t="inlineStr"/>
-      <c r="AQ179" t="inlineStr"/>
-      <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -25134,7 +22792,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -25143,17 +22800,6 @@
       <c r="O180" t="n">
         <v>1</v>
       </c>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
-      <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
-      <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="n">
         <v>0</v>
       </c>
@@ -25190,7 +22836,6 @@
       <c r="AL180" t="n">
         <v>0.2</v>
       </c>
-      <c r="AM180" t="inlineStr"/>
       <c r="AN180" t="n">
         <v>5.25</v>
       </c>
@@ -25199,9 +22844,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP180" t="inlineStr"/>
-      <c r="AQ180" t="inlineStr"/>
-      <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -25266,7 +22908,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25275,17 +22916,6 @@
       <c r="O181" t="n">
         <v>0.8</v>
       </c>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="n">
         <v>0</v>
       </c>
@@ -25322,16 +22952,11 @@
       <c r="AL181" t="n">
         <v>0</v>
       </c>
-      <c r="AM181" t="inlineStr"/>
-      <c r="AN181" t="inlineStr"/>
       <c r="AO181" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP181" t="inlineStr"/>
-      <c r="AQ181" t="inlineStr"/>
-      <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -25396,7 +23021,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25405,17 +23029,6 @@
       <c r="O182" t="n">
         <v>0.85</v>
       </c>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr"/>
-      <c r="V182" t="inlineStr"/>
-      <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
-      <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="n">
         <v>0</v>
       </c>
@@ -25452,16 +23065,11 @@
       <c r="AL182" t="n">
         <v>0.04999999999999993</v>
       </c>
-      <c r="AM182" t="inlineStr"/>
-      <c r="AN182" t="inlineStr"/>
       <c r="AO182" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP182" t="inlineStr"/>
-      <c r="AQ182" t="inlineStr"/>
-      <c r="AR182" t="inlineStr"/>
       <c r="AS182" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -25526,7 +23134,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25535,17 +23142,6 @@
       <c r="O183" t="n">
         <v>0.85</v>
       </c>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="n">
         <v>0</v>
       </c>
@@ -25582,16 +23178,11 @@
       <c r="AL183" t="n">
         <v>0.04999999999999993</v>
       </c>
-      <c r="AM183" t="inlineStr"/>
-      <c r="AN183" t="inlineStr"/>
       <c r="AO183" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP183" t="inlineStr"/>
-      <c r="AQ183" t="inlineStr"/>
-      <c r="AR183" t="inlineStr"/>
       <c r="AS183" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -25656,7 +23247,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -25665,16 +23255,6 @@
       <c r="O184" t="n">
         <v>1</v>
       </c>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr">
         <is>
           <t>toon es realigned to abra hs, bangued west and velazco es</t>
@@ -25716,7 +23296,6 @@
       <c r="AL184" t="n">
         <v>0</v>
       </c>
-      <c r="AM184" t="inlineStr"/>
       <c r="AN184" t="n">
         <v>4.25</v>
       </c>
@@ -25798,7 +23377,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -25807,16 +23385,6 @@
       <c r="O185" t="n">
         <v>1</v>
       </c>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="inlineStr">
         <is>
           <t>toon es realigned to abra hs, bangued west and velazco es</t>
@@ -25858,7 +23426,6 @@
       <c r="AL185" t="n">
         <v>0</v>
       </c>
-      <c r="AM185" t="inlineStr"/>
       <c r="AN185" t="n">
         <v>4.25</v>
       </c>
@@ -25867,9 +23434,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP185" t="inlineStr"/>
-      <c r="AQ185" t="inlineStr"/>
-      <c r="AR185" t="inlineStr"/>
       <c r="AS185" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -25934,7 +23498,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -25943,16 +23506,6 @@
       <c r="O186" t="n">
         <v>1</v>
       </c>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="inlineStr">
         <is>
           <t>toon es realigned to abra hs, bangued west and velazco es</t>
@@ -25994,7 +23547,6 @@
       <c r="AL186" t="n">
         <v>0</v>
       </c>
-      <c r="AM186" t="inlineStr"/>
       <c r="AN186" t="n">
         <v>4.25</v>
       </c>
@@ -26003,9 +23555,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP186" t="inlineStr"/>
-      <c r="AQ186" t="inlineStr"/>
-      <c r="AR186" t="inlineStr"/>
       <c r="AS186" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -26070,7 +23619,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26079,17 +23627,6 @@
       <c r="O187" t="n">
         <v>0.86</v>
       </c>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
-      <c r="Z187" t="inlineStr"/>
       <c r="AA187" t="n">
         <v>0</v>
       </c>
@@ -26126,16 +23663,11 @@
       <c r="AL187" t="n">
         <v>0.05999999999999994</v>
       </c>
-      <c r="AM187" t="inlineStr"/>
-      <c r="AN187" t="inlineStr"/>
       <c r="AO187" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP187" t="inlineStr"/>
-      <c r="AQ187" t="inlineStr"/>
-      <c r="AR187" t="inlineStr"/>
       <c r="AS187" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -26200,7 +23732,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26209,17 +23740,6 @@
       <c r="O188" t="n">
         <v>0.85</v>
       </c>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
-      <c r="V188" t="inlineStr"/>
-      <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="n">
         <v>0</v>
       </c>
@@ -26256,16 +23776,11 @@
       <c r="AL188" t="n">
         <v>0.04999999999999993</v>
       </c>
-      <c r="AM188" t="inlineStr"/>
-      <c r="AN188" t="inlineStr"/>
       <c r="AO188" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP188" t="inlineStr"/>
-      <c r="AQ188" t="inlineStr"/>
-      <c r="AR188" t="inlineStr"/>
       <c r="AS188" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -26330,7 +23845,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26339,17 +23853,6 @@
       <c r="O189" t="n">
         <v>0.8</v>
       </c>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
-      <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="n">
         <v>0</v>
       </c>
@@ -26386,16 +23889,11 @@
       <c r="AL189" t="n">
         <v>0</v>
       </c>
-      <c r="AM189" t="inlineStr"/>
-      <c r="AN189" t="inlineStr"/>
       <c r="AO189" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP189" t="inlineStr"/>
-      <c r="AQ189" t="inlineStr"/>
-      <c r="AR189" t="inlineStr"/>
       <c r="AS189" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -26460,7 +23958,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -26469,17 +23966,6 @@
       <c r="O190" t="n">
         <v>1</v>
       </c>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr"/>
-      <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
-      <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
-      <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="n">
         <v>0</v>
       </c>
@@ -26516,7 +24002,6 @@
       <c r="AL190" t="n">
         <v>0.2</v>
       </c>
-      <c r="AM190" t="inlineStr"/>
       <c r="AN190" t="n">
         <v>5.25</v>
       </c>
@@ -26525,9 +24010,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP190" t="inlineStr"/>
-      <c r="AQ190" t="inlineStr"/>
-      <c r="AR190" t="inlineStr"/>
       <c r="AS190" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -26592,7 +24074,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26601,17 +24082,6 @@
       <c r="O191" t="n">
         <v>0.8</v>
       </c>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
-      <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
-      <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="n">
         <v>0</v>
       </c>
@@ -26648,16 +24118,11 @@
       <c r="AL191" t="n">
         <v>0</v>
       </c>
-      <c r="AM191" t="inlineStr"/>
-      <c r="AN191" t="inlineStr"/>
       <c r="AO191" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP191" t="inlineStr"/>
-      <c r="AQ191" t="inlineStr"/>
-      <c r="AR191" t="inlineStr"/>
       <c r="AS191" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -26722,7 +24187,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26731,17 +24195,6 @@
       <c r="O192" t="n">
         <v>0.8</v>
       </c>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="n">
         <v>0</v>
       </c>
@@ -26778,16 +24231,11 @@
       <c r="AL192" t="n">
         <v>0</v>
       </c>
-      <c r="AM192" t="inlineStr"/>
-      <c r="AN192" t="inlineStr"/>
       <c r="AO192" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP192" t="inlineStr"/>
-      <c r="AQ192" t="inlineStr"/>
-      <c r="AR192" t="inlineStr"/>
       <c r="AS192" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -26852,7 +24300,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -26861,17 +24308,6 @@
       <c r="O193" t="n">
         <v>1</v>
       </c>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
-      <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="n">
         <v>0</v>
       </c>
@@ -26908,7 +24344,6 @@
       <c r="AL193" t="n">
         <v>0</v>
       </c>
-      <c r="AM193" t="inlineStr"/>
       <c r="AN193" t="n">
         <v>4.25</v>
       </c>
@@ -26917,9 +24352,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP193" t="inlineStr"/>
-      <c r="AQ193" t="inlineStr"/>
-      <c r="AR193" t="inlineStr"/>
       <c r="AS193" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -26984,7 +24416,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -26993,17 +24424,6 @@
       <c r="O194" t="n">
         <v>1</v>
       </c>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr"/>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
-      <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
-      <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="n">
         <v>0</v>
       </c>
@@ -27040,7 +24460,6 @@
       <c r="AL194" t="n">
         <v>0</v>
       </c>
-      <c r="AM194" t="inlineStr"/>
       <c r="AN194" t="n">
         <v>4.25</v>
       </c>
@@ -27049,9 +24468,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP194" t="inlineStr"/>
-      <c r="AQ194" t="inlineStr"/>
-      <c r="AR194" t="inlineStr"/>
       <c r="AS194" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -27116,7 +24532,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -27125,17 +24540,6 @@
       <c r="O195" t="n">
         <v>0.77</v>
       </c>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr"/>
-      <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
-      <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="n">
         <v>0</v>
       </c>
@@ -27172,16 +24576,11 @@
       <c r="AL195" t="n">
         <v>0</v>
       </c>
-      <c r="AM195" t="inlineStr"/>
-      <c r="AN195" t="inlineStr"/>
       <c r="AO195" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP195" t="inlineStr"/>
-      <c r="AQ195" t="inlineStr"/>
-      <c r="AR195" t="inlineStr"/>
       <c r="AS195" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -27246,7 +24645,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -27255,17 +24653,6 @@
       <c r="O196" t="n">
         <v>1</v>
       </c>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr"/>
-      <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
-      <c r="V196" t="inlineStr"/>
-      <c r="W196" t="inlineStr"/>
-      <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
-      <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="n">
         <v>0</v>
       </c>
@@ -27302,7 +24689,6 @@
       <c r="AL196" t="n">
         <v>0</v>
       </c>
-      <c r="AM196" t="inlineStr"/>
       <c r="AN196" t="n">
         <v>4.25</v>
       </c>
@@ -27311,9 +24697,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP196" t="inlineStr"/>
-      <c r="AQ196" t="inlineStr"/>
-      <c r="AR196" t="inlineStr"/>
       <c r="AS196" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -27378,7 +24761,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -27387,17 +24769,6 @@
       <c r="O197" t="n">
         <v>1</v>
       </c>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="inlineStr"/>
-      <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
-      <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
-      <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="n">
         <v>0</v>
       </c>
@@ -27434,7 +24805,6 @@
       <c r="AL197" t="n">
         <v>0</v>
       </c>
-      <c r="AM197" t="inlineStr"/>
       <c r="AN197" t="n">
         <v>4.25</v>
       </c>
@@ -27443,9 +24813,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP197" t="inlineStr"/>
-      <c r="AQ197" t="inlineStr"/>
-      <c r="AR197" t="inlineStr"/>
       <c r="AS197" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -27510,7 +24877,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -27519,17 +24885,6 @@
       <c r="O198" t="n">
         <v>1</v>
       </c>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
-      <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
-      <c r="W198" t="inlineStr"/>
-      <c r="X198" t="inlineStr"/>
-      <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
       <c r="AA198" t="n">
         <v>0</v>
       </c>
@@ -27566,7 +24921,6 @@
       <c r="AL198" t="n">
         <v>0</v>
       </c>
-      <c r="AM198" t="inlineStr"/>
       <c r="AN198" t="n">
         <v>4.25</v>
       </c>
@@ -27575,9 +24929,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP198" t="inlineStr"/>
-      <c r="AQ198" t="inlineStr"/>
-      <c r="AR198" t="inlineStr"/>
       <c r="AS198" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -27642,7 +24993,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -27651,17 +25001,6 @@
       <c r="O199" t="n">
         <v>1</v>
       </c>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="inlineStr"/>
-      <c r="T199" t="inlineStr"/>
-      <c r="U199" t="inlineStr"/>
-      <c r="V199" t="inlineStr"/>
-      <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr"/>
-      <c r="Y199" t="inlineStr"/>
-      <c r="Z199" t="inlineStr"/>
       <c r="AA199" t="n">
         <v>0</v>
       </c>
@@ -27698,7 +25037,6 @@
       <c r="AL199" t="n">
         <v>0</v>
       </c>
-      <c r="AM199" t="inlineStr"/>
       <c r="AN199" t="n">
         <v>4.25</v>
       </c>
@@ -27707,9 +25045,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP199" t="inlineStr"/>
-      <c r="AQ199" t="inlineStr"/>
-      <c r="AR199" t="inlineStr"/>
       <c r="AS199" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -27774,7 +25109,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -27783,17 +25117,6 @@
       <c r="O200" t="n">
         <v>0.86</v>
       </c>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr"/>
-      <c r="T200" t="inlineStr"/>
-      <c r="U200" t="inlineStr"/>
-      <c r="V200" t="inlineStr"/>
-      <c r="W200" t="inlineStr"/>
-      <c r="X200" t="inlineStr"/>
-      <c r="Y200" t="inlineStr"/>
-      <c r="Z200" t="inlineStr"/>
       <c r="AA200" t="n">
         <v>0</v>
       </c>
@@ -27830,16 +25153,11 @@
       <c r="AL200" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AM200" t="inlineStr"/>
-      <c r="AN200" t="inlineStr"/>
       <c r="AO200" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP200" t="inlineStr"/>
-      <c r="AQ200" t="inlineStr"/>
-      <c r="AR200" t="inlineStr"/>
       <c r="AS200" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -27904,7 +25222,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -27913,17 +25230,6 @@
       <c r="O201" t="n">
         <v>1</v>
       </c>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr"/>
-      <c r="T201" t="inlineStr"/>
-      <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr"/>
-      <c r="W201" t="inlineStr"/>
-      <c r="X201" t="inlineStr"/>
-      <c r="Y201" t="inlineStr"/>
-      <c r="Z201" t="inlineStr"/>
       <c r="AA201" t="n">
         <v>0</v>
       </c>
@@ -27960,7 +25266,6 @@
       <c r="AL201" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AM201" t="inlineStr"/>
       <c r="AN201" t="n">
         <v>5.25</v>
       </c>
@@ -27969,9 +25274,6 @@
           <t>EARTHQUAKE (Ilocos Norte)</t>
         </is>
       </c>
-      <c r="AP201" t="inlineStr"/>
-      <c r="AQ201" t="inlineStr"/>
-      <c r="AR201" t="inlineStr"/>
       <c r="AS201" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -27980,6 +25282,79 @@
       <c r="AT201" t="inlineStr">
         <is>
           <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU201" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/CAR/CAR_QRF.xlsx
+++ b/Filtered_By_Region/CAR/CAR_QRF.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
